--- a/data/input_computational.xlsx
+++ b/data/input_computational.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon.sharepoint.com/sites/FoNS_Chemistry_RRG/Romain_Research_Group/Ryan_Reese_DigiChem_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_296D057FD4E98327D0DF1B6129383BE684E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8841F9E4-9B2D-4CE1-A816-69B6C9D5394E}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_296D057FD4E98327D0DF1B6129383BE684E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA245D1-9201-4F7D-87DF-3F6B8B0B6E6D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35320" yWindow="1950" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="334">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>bulk_monomer_conc</t>
+  </si>
+  <si>
+    <t>delta_g</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD351"/>
+  <dimension ref="A1:AE351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1892,7 +1895,7 @@
     <col min="5" max="5" width="8.83984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,49 +1945,52 @@
         <v>13</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -2009,14 +2015,14 @@
       <c r="N2" s="8">
         <v>-13.71595181</v>
       </c>
-      <c r="Q2">
-        <v>2023</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R2">
+        <v>2023</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -2041,14 +2047,14 @@
       <c r="N3" s="8">
         <v>13.87573289</v>
       </c>
-      <c r="Q3">
-        <v>2023</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R3">
+        <v>2023</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -2073,14 +2079,14 @@
       <c r="N4" s="8">
         <v>16.010820590000002</v>
       </c>
-      <c r="Q4">
-        <v>2023</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R4">
+        <v>2023</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
@@ -2105,14 +2111,14 @@
       <c r="N5" s="8">
         <v>1.833305271</v>
       </c>
-      <c r="Q5">
-        <v>2023</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R5">
+        <v>2023</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2137,14 +2143,14 @@
       <c r="N6" s="8">
         <v>-14.034907090000001</v>
       </c>
-      <c r="Q6">
-        <v>2023</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R6">
+        <v>2023</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2169,14 +2175,14 @@
       <c r="N7" s="8">
         <v>-1.267360558</v>
       </c>
-      <c r="Q7">
-        <v>2023</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R7">
+        <v>2023</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -2201,14 +2207,14 @@
       <c r="N8" s="8">
         <v>11.14237359</v>
       </c>
-      <c r="Q8">
-        <v>2023</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R8">
+        <v>2023</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -2233,14 +2239,14 @@
       <c r="N9" s="8">
         <v>-23.314137850000002</v>
       </c>
-      <c r="Q9">
-        <v>2023</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R9">
+        <v>2023</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -2265,14 +2271,14 @@
       <c r="N10" s="8">
         <v>-21.880533029999999</v>
       </c>
-      <c r="Q10">
-        <v>2023</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R10">
+        <v>2023</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
@@ -2297,14 +2303,14 @@
       <c r="N11" s="8">
         <v>-17.379399750000001</v>
       </c>
-      <c r="Q11">
-        <v>2023</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R11">
+        <v>2023</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -2329,14 +2335,14 @@
       <c r="N12" s="8">
         <v>-14.72268517</v>
       </c>
-      <c r="Q12">
-        <v>2023</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R12">
+        <v>2023</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -2361,14 +2367,14 @@
       <c r="N13" s="8">
         <v>-3.0218315150000001</v>
       </c>
-      <c r="Q13">
-        <v>2023</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R13">
+        <v>2023</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2393,14 +2399,14 @@
       <c r="N14" s="8">
         <v>-19.992894159999999</v>
       </c>
-      <c r="Q14">
-        <v>2023</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R14">
+        <v>2023</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -2425,14 +2431,14 @@
       <c r="N15" s="8">
         <v>-8.63718757</v>
       </c>
-      <c r="Q15">
-        <v>2023</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R15">
+        <v>2023</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
@@ -2457,14 +2463,14 @@
       <c r="N16" s="8">
         <v>-77.806086660000005</v>
       </c>
-      <c r="Q16">
-        <v>2023</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R16">
+        <v>2023</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
@@ -2489,14 +2495,14 @@
       <c r="N17" s="8">
         <v>-77.592916209999999</v>
       </c>
-      <c r="Q17">
-        <v>2023</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R17">
+        <v>2023</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
         <v>43</v>
       </c>
@@ -2521,14 +2527,14 @@
       <c r="N18" s="8">
         <v>-74.247089840000001</v>
       </c>
-      <c r="Q18">
-        <v>2023</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R18">
+        <v>2023</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -2553,14 +2559,14 @@
       <c r="N19" s="8">
         <v>-61.387512549999997</v>
       </c>
-      <c r="Q19">
-        <v>2023</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R19">
+        <v>2023</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -2585,14 +2591,14 @@
       <c r="N20" s="8">
         <v>-1.506184755</v>
       </c>
-      <c r="Q20">
-        <v>2023</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R20">
+        <v>2023</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
@@ -2617,14 +2623,14 @@
       <c r="N21" s="8">
         <v>15.797919220000001</v>
       </c>
-      <c r="Q21">
-        <v>2023</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R21">
+        <v>2023</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
@@ -2649,14 +2655,14 @@
       <c r="N22" s="8">
         <v>20.972418510000001</v>
       </c>
-      <c r="Q22">
-        <v>2023</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R22">
+        <v>2023</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
@@ -2681,14 +2687,14 @@
       <c r="N23" s="8">
         <v>64.911007049999995</v>
       </c>
-      <c r="Q23">
-        <v>2023</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R23">
+        <v>2023</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A24" s="8" t="s">
         <v>49</v>
       </c>
@@ -2713,14 +2719,14 @@
       <c r="N24" s="8">
         <v>3.4288889930000002</v>
       </c>
-      <c r="Q24">
-        <v>2023</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R24">
+        <v>2023</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
@@ -2745,14 +2751,14 @@
       <c r="N25" s="8">
         <v>15.578619079999999</v>
       </c>
-      <c r="Q25">
-        <v>2023</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R25">
+        <v>2023</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
@@ -2777,14 +2783,14 @@
       <c r="N26" s="8">
         <v>11.230418240000001</v>
       </c>
-      <c r="Q26">
-        <v>2023</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R26">
+        <v>2023</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
@@ -2809,14 +2815,14 @@
       <c r="N27" s="8">
         <v>33.730195940000002</v>
       </c>
-      <c r="Q27">
-        <v>2023</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R27">
+        <v>2023</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
@@ -2841,14 +2847,14 @@
       <c r="N28" s="8">
         <v>-12.582063249999999</v>
       </c>
-      <c r="Q28">
-        <v>2023</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R28">
+        <v>2023</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
@@ -2873,14 +2879,14 @@
       <c r="N29" s="8">
         <v>-39.999032200000002</v>
       </c>
-      <c r="Q29">
-        <v>2023</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R29">
+        <v>2023</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A30" s="8" t="s">
         <v>55</v>
       </c>
@@ -2905,14 +2911,14 @@
       <c r="N30" s="8">
         <v>5.977821166</v>
       </c>
-      <c r="Q30">
-        <v>2023</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R30">
+        <v>2023</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -2937,14 +2943,14 @@
       <c r="N31" s="8">
         <v>-8.9259265320000001</v>
       </c>
-      <c r="Q31">
-        <v>2023</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R31">
+        <v>2023</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
@@ -2969,14 +2975,14 @@
       <c r="N32" s="8">
         <v>-50.309590999999998</v>
       </c>
-      <c r="Q32">
-        <v>2023</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R32">
+        <v>2023</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
@@ -3001,14 +3007,14 @@
       <c r="N33" s="8">
         <v>-22.591468840000001</v>
       </c>
-      <c r="Q33">
-        <v>2023</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R33">
+        <v>2023</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -3033,14 +3039,14 @@
       <c r="N34" s="8">
         <v>-34.79451005</v>
       </c>
-      <c r="Q34">
-        <v>2023</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R34">
+        <v>2023</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A35" s="8" t="s">
         <v>60</v>
       </c>
@@ -3065,14 +3071,14 @@
       <c r="N35" s="8">
         <v>2.9496079050000001</v>
       </c>
-      <c r="Q35">
-        <v>2023</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R35">
+        <v>2023</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
@@ -3097,14 +3103,14 @@
       <c r="N36" s="8">
         <v>-4.1082352799999997</v>
       </c>
-      <c r="Q36">
-        <v>2023</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R36">
+        <v>2023</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
@@ -3129,14 +3135,14 @@
       <c r="N37" s="8">
         <v>-17.825585279999999</v>
       </c>
-      <c r="Q37">
-        <v>2023</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R37">
+        <v>2023</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A38" s="8" t="s">
         <v>63</v>
       </c>
@@ -3161,14 +3167,14 @@
       <c r="N38" s="8">
         <v>-64.166030239999998</v>
       </c>
-      <c r="Q38">
-        <v>2023</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R38">
+        <v>2023</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A39" s="8" t="s">
         <v>64</v>
       </c>
@@ -3193,14 +3199,14 @@
       <c r="N39" s="8">
         <v>13.82213724</v>
       </c>
-      <c r="Q39">
-        <v>2023</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R39">
+        <v>2023</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A40" s="8" t="s">
         <v>65</v>
       </c>
@@ -3225,14 +3231,14 @@
       <c r="N40" s="8">
         <v>16.31117635</v>
       </c>
-      <c r="Q40">
-        <v>2023</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R40">
+        <v>2023</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A41" s="8" t="s">
         <v>66</v>
       </c>
@@ -3257,14 +3263,14 @@
       <c r="N41" s="8">
         <v>-47.506745000000002</v>
       </c>
-      <c r="Q41">
-        <v>2023</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R41">
+        <v>2023</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A42" s="8" t="s">
         <v>67</v>
       </c>
@@ -3289,14 +3295,14 @@
       <c r="N42" s="8">
         <v>-0.167827107</v>
       </c>
-      <c r="Q42">
-        <v>2023</v>
-      </c>
-      <c r="R42" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R42">
+        <v>2023</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
@@ -3321,14 +3327,14 @@
       <c r="N43" s="8">
         <v>-20.288368160000001</v>
       </c>
-      <c r="Q43">
-        <v>2023</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R43">
+        <v>2023</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A44" s="8" t="s">
         <v>69</v>
       </c>
@@ -3353,14 +3359,14 @@
       <c r="N44" s="8">
         <v>-33.040328989999999</v>
       </c>
-      <c r="Q44">
-        <v>2023</v>
-      </c>
-      <c r="R44" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R44">
+        <v>2023</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="8" t="s">
         <v>70</v>
       </c>
@@ -3385,14 +3391,14 @@
       <c r="N45" s="8">
         <v>-25.47696483</v>
       </c>
-      <c r="Q45">
-        <v>2023</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R45">
+        <v>2023</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -3417,14 +3423,14 @@
       <c r="N46" s="8">
         <v>-59.360391190000001</v>
       </c>
-      <c r="Q46">
-        <v>2023</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R46">
+        <v>2023</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -3449,14 +3455,14 @@
       <c r="N47" s="8">
         <v>-13.22767771</v>
       </c>
-      <c r="Q47">
-        <v>2023</v>
-      </c>
-      <c r="R47" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R47">
+        <v>2023</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A48" s="8" t="s">
         <v>73</v>
       </c>
@@ -3481,14 +3487,14 @@
       <c r="N48" s="8">
         <v>-19.838423880000001</v>
       </c>
-      <c r="Q48">
-        <v>2023</v>
-      </c>
-      <c r="R48" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R48">
+        <v>2023</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A49" s="8" t="s">
         <v>74</v>
       </c>
@@ -3513,14 +3519,14 @@
       <c r="N49" s="8">
         <v>-24.686053510000001</v>
       </c>
-      <c r="Q49">
-        <v>2023</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R49">
+        <v>2023</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A50" s="8" t="s">
         <v>75</v>
       </c>
@@ -3545,14 +3551,14 @@
       <c r="N50" s="8">
         <v>16.294595269999999</v>
       </c>
-      <c r="Q50">
-        <v>2023</v>
-      </c>
-      <c r="R50" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R50">
+        <v>2023</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A51" s="8" t="s">
         <v>76</v>
       </c>
@@ -3577,14 +3583,14 @@
       <c r="N51" s="8">
         <v>4.074156758</v>
       </c>
-      <c r="Q51">
-        <v>2023</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R51">
+        <v>2023</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A52" s="8" t="s">
         <v>77</v>
       </c>
@@ -3609,14 +3615,14 @@
       <c r="N52" s="8">
         <v>6.546714981</v>
       </c>
-      <c r="Q52">
-        <v>2023</v>
-      </c>
-      <c r="R52" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R52">
+        <v>2023</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A53" s="8" t="s">
         <v>78</v>
       </c>
@@ -3641,14 +3647,14 @@
       <c r="N53" s="8">
         <v>12.48290654</v>
       </c>
-      <c r="Q53">
-        <v>2023</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R53">
+        <v>2023</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A54" s="8" t="s">
         <v>79</v>
       </c>
@@ -3673,14 +3679,14 @@
       <c r="N54" s="8">
         <v>-25.45288463</v>
       </c>
-      <c r="Q54">
-        <v>2023</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R54">
+        <v>2023</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
@@ -3705,14 +3711,14 @@
       <c r="N55" s="8">
         <v>6.1536571159999998</v>
       </c>
-      <c r="Q55">
-        <v>2023</v>
-      </c>
-      <c r="R55" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R55">
+        <v>2023</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A56" s="8" t="s">
         <v>81</v>
       </c>
@@ -3737,14 +3743,14 @@
       <c r="N56" s="8">
         <v>13.67610125</v>
       </c>
-      <c r="Q56">
-        <v>2023</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R56">
+        <v>2023</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A57" s="8" t="s">
         <v>82</v>
       </c>
@@ -3769,14 +3775,14 @@
       <c r="N57" s="8">
         <v>-1.833</v>
       </c>
-      <c r="Q57">
-        <v>2023</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R57">
+        <v>2023</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A58" s="8" t="s">
         <v>83</v>
       </c>
@@ -3801,14 +3807,14 @@
       <c r="N58" s="8">
         <v>20.616791719999998</v>
       </c>
-      <c r="Q58">
-        <v>2023</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R58">
+        <v>2023</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A59" s="8" t="s">
         <v>84</v>
       </c>
@@ -3833,14 +3839,14 @@
       <c r="N59" s="8">
         <v>3.064154829</v>
       </c>
-      <c r="Q59">
-        <v>2023</v>
-      </c>
-      <c r="R59" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R59">
+        <v>2023</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A60" s="8" t="s">
         <v>85</v>
       </c>
@@ -3865,14 +3871,14 @@
       <c r="N60" s="8">
         <v>10.79236276</v>
       </c>
-      <c r="Q60">
-        <v>2023</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R60">
+        <v>2023</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A61" s="8" t="s">
         <v>86</v>
       </c>
@@ -3897,14 +3903,14 @@
       <c r="N61" s="8">
         <v>-1.6422254469999999</v>
       </c>
-      <c r="Q61">
-        <v>2023</v>
-      </c>
-      <c r="R61" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R61">
+        <v>2023</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A62" s="8" t="s">
         <v>87</v>
       </c>
@@ -3929,14 +3935,14 @@
       <c r="N62" s="8">
         <v>-0.74507224800000005</v>
       </c>
-      <c r="Q62">
-        <v>2023</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R62">
+        <v>2023</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A63" s="8" t="s">
         <v>88</v>
       </c>
@@ -3961,14 +3967,14 @@
       <c r="N63" s="8">
         <v>-13.45705673</v>
       </c>
-      <c r="Q63">
-        <v>2023</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R63">
+        <v>2023</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
@@ -3993,14 +3999,14 @@
       <c r="N64" s="8">
         <v>-4.3971605440000001</v>
       </c>
-      <c r="Q64">
-        <v>2023</v>
-      </c>
-      <c r="R64" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R64">
+        <v>2023</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A65" s="8" t="s">
         <v>90</v>
       </c>
@@ -4025,14 +4031,14 @@
       <c r="N65" s="8">
         <v>1.8481045439999999</v>
       </c>
-      <c r="Q65">
-        <v>2023</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R65">
+        <v>2023</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A66" s="8" t="s">
         <v>91</v>
       </c>
@@ -4057,14 +4063,14 @@
       <c r="N66" s="8">
         <v>16.020323579999999</v>
       </c>
-      <c r="Q66">
-        <v>2023</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R66">
+        <v>2023</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A67" s="8" t="s">
         <v>92</v>
       </c>
@@ -4089,14 +4095,14 @@
       <c r="N67" s="8">
         <v>9.8534032150000002</v>
       </c>
-      <c r="Q67">
-        <v>2023</v>
-      </c>
-      <c r="R67" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R67">
+        <v>2023</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -4121,14 +4127,14 @@
       <c r="N68" s="8">
         <v>8.4273468690000009</v>
       </c>
-      <c r="Q68">
-        <v>2023</v>
-      </c>
-      <c r="R68" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R68">
+        <v>2023</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A69" s="8" t="s">
         <v>94</v>
       </c>
@@ -4153,14 +4159,14 @@
       <c r="N69" s="8">
         <v>-62.558194280000002</v>
       </c>
-      <c r="Q69">
-        <v>2023</v>
-      </c>
-      <c r="R69" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R69">
+        <v>2023</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A70" s="8" t="s">
         <v>95</v>
       </c>
@@ -4185,14 +4191,14 @@
       <c r="N70" s="8">
         <v>-79.466902250000004</v>
       </c>
-      <c r="Q70">
-        <v>2023</v>
-      </c>
-      <c r="R70" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R70">
+        <v>2023</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A71" s="8" t="s">
         <v>96</v>
       </c>
@@ -4217,14 +4223,14 @@
       <c r="N71" s="8">
         <v>-60.362104739999999</v>
       </c>
-      <c r="Q71">
-        <v>2023</v>
-      </c>
-      <c r="R71" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R71">
+        <v>2023</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A72" s="8" t="s">
         <v>97</v>
       </c>
@@ -4249,14 +4255,14 @@
       <c r="N72" s="8">
         <v>-62.103239289999998</v>
       </c>
-      <c r="Q72">
-        <v>2023</v>
-      </c>
-      <c r="R72" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R72">
+        <v>2023</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A73" s="8" t="s">
         <v>98</v>
       </c>
@@ -4281,14 +4287,14 @@
       <c r="N73" s="8">
         <v>-76.900970259999994</v>
       </c>
-      <c r="Q73">
-        <v>2023</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R73">
+        <v>2023</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A74" s="8" t="s">
         <v>99</v>
       </c>
@@ -4313,14 +4319,14 @@
       <c r="N74" s="8">
         <v>-84.847551510000002</v>
       </c>
-      <c r="Q74">
-        <v>2023</v>
-      </c>
-      <c r="R74" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R74">
+        <v>2023</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A75" s="8" t="s">
         <v>100</v>
       </c>
@@ -4345,14 +4351,14 @@
       <c r="N75" s="8">
         <v>-34.080206449999999</v>
       </c>
-      <c r="Q75">
-        <v>2023</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R75">
+        <v>2023</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A76" s="8" t="s">
         <v>101</v>
       </c>
@@ -4377,14 +4383,14 @@
       <c r="N76" s="8">
         <v>-25.566755759999999</v>
       </c>
-      <c r="Q76">
-        <v>2023</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R76">
+        <v>2023</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A77" s="8" t="s">
         <v>102</v>
       </c>
@@ -4409,14 +4415,14 @@
       <c r="N77" s="8">
         <v>-12.625305770000001</v>
       </c>
-      <c r="Q77">
-        <v>2023</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R77">
+        <v>2023</v>
+      </c>
+      <c r="S77" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A78" s="8" t="s">
         <v>103</v>
       </c>
@@ -4441,14 +4447,14 @@
       <c r="N78" s="8">
         <v>-30.01654924</v>
       </c>
-      <c r="Q78">
-        <v>2023</v>
-      </c>
-      <c r="R78" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R78">
+        <v>2023</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A79" s="8" t="s">
         <v>104</v>
       </c>
@@ -4473,14 +4479,14 @@
       <c r="N79" s="8">
         <v>-47.443781389999998</v>
       </c>
-      <c r="Q79">
-        <v>2023</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R79">
+        <v>2023</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A80" s="8" t="s">
         <v>105</v>
       </c>
@@ -4505,14 +4511,14 @@
       <c r="N80" s="8">
         <v>9.3983267099999992</v>
       </c>
-      <c r="Q80">
-        <v>2023</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R80">
+        <v>2023</v>
+      </c>
+      <c r="S80" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A81" s="8" t="s">
         <v>44</v>
       </c>
@@ -4537,14 +4543,14 @@
       <c r="N81" s="8">
         <v>-51.838184120000001</v>
       </c>
-      <c r="Q81">
-        <v>2023</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R81">
+        <v>2023</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A82" s="8" t="s">
         <v>106</v>
       </c>
@@ -4569,14 +4575,14 @@
       <c r="N82" s="8">
         <v>-77.502171509999997</v>
       </c>
-      <c r="Q82">
-        <v>2023</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R82">
+        <v>2023</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A83" s="8" t="s">
         <v>107</v>
       </c>
@@ -4601,14 +4607,14 @@
       <c r="N83" s="8">
         <v>-85.325881210000006</v>
       </c>
-      <c r="Q83">
-        <v>2023</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R83">
+        <v>2023</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A84" s="8" t="s">
         <v>108</v>
       </c>
@@ -4633,14 +4639,14 @@
       <c r="N84" s="8">
         <v>-164.07118159999999</v>
       </c>
-      <c r="Q84">
-        <v>2023</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R84">
+        <v>2023</v>
+      </c>
+      <c r="S84" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A85" s="8" t="s">
         <v>109</v>
       </c>
@@ -4665,14 +4671,14 @@
       <c r="N85" s="8">
         <v>3.879360964</v>
       </c>
-      <c r="Q85">
-        <v>2023</v>
-      </c>
-      <c r="R85" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R85">
+        <v>2023</v>
+      </c>
+      <c r="S85" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A86" s="8" t="s">
         <v>110</v>
       </c>
@@ -4697,14 +4703,14 @@
       <c r="N86" s="8">
         <v>-33.759444960000003</v>
       </c>
-      <c r="Q86">
-        <v>2023</v>
-      </c>
-      <c r="R86" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R86">
+        <v>2023</v>
+      </c>
+      <c r="S86" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A87" s="8" t="s">
         <v>111</v>
       </c>
@@ -4729,14 +4735,14 @@
       <c r="N87" s="8">
         <v>25.717852310000001</v>
       </c>
-      <c r="Q87">
-        <v>2023</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R87">
+        <v>2023</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A88" s="8" t="s">
         <v>112</v>
       </c>
@@ -4761,14 +4767,14 @@
       <c r="N88" s="8">
         <v>4.1191273380000002</v>
       </c>
-      <c r="Q88">
-        <v>2023</v>
-      </c>
-      <c r="R88" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R88">
+        <v>2023</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A89" s="8" t="s">
         <v>73</v>
       </c>
@@ -4793,14 +4799,14 @@
       <c r="N89" s="8">
         <v>-17.794491749999999</v>
       </c>
-      <c r="Q89">
-        <v>2023</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R89">
+        <v>2023</v>
+      </c>
+      <c r="S89" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A90" s="8" t="s">
         <v>113</v>
       </c>
@@ -4825,14 +4831,14 @@
       <c r="N90" s="8">
         <v>13.005601800000001</v>
       </c>
-      <c r="Q90">
-        <v>2023</v>
-      </c>
-      <c r="R90" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R90">
+        <v>2023</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A91" s="8" t="s">
         <v>114</v>
       </c>
@@ -4857,14 +4863,14 @@
       <c r="N91" s="8">
         <v>-4.7555602629999996</v>
       </c>
-      <c r="Q91">
-        <v>2023</v>
-      </c>
-      <c r="R91" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R91">
+        <v>2023</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A92" s="8" t="s">
         <v>115</v>
       </c>
@@ -4889,14 +4895,14 @@
       <c r="N92" s="8">
         <v>-18.51636315</v>
       </c>
-      <c r="Q92">
-        <v>2023</v>
-      </c>
-      <c r="R92" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R92">
+        <v>2023</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A93" s="8" t="s">
         <v>93</v>
       </c>
@@ -4921,14 +4927,14 @@
       <c r="N93" s="8">
         <v>-4.0434153730000002</v>
       </c>
-      <c r="Q93">
-        <v>2023</v>
-      </c>
-      <c r="R93" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R93">
+        <v>2023</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A94" s="8" t="s">
         <v>116</v>
       </c>
@@ -4953,14 +4959,14 @@
       <c r="N94" s="8">
         <v>-13.923134080000001</v>
       </c>
-      <c r="Q94">
-        <v>2023</v>
-      </c>
-      <c r="R94" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R94">
+        <v>2023</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A95" s="8" t="s">
         <v>117</v>
       </c>
@@ -4985,14 +4991,14 @@
       <c r="N95" s="8">
         <v>-1.046487956</v>
       </c>
-      <c r="Q95">
-        <v>2023</v>
-      </c>
-      <c r="R95" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R95">
+        <v>2023</v>
+      </c>
+      <c r="S95" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A96" s="8" t="s">
         <v>118</v>
       </c>
@@ -5017,14 +5023,14 @@
       <c r="N96" s="8">
         <v>4.4109396849999998</v>
       </c>
-      <c r="Q96">
-        <v>2023</v>
-      </c>
-      <c r="R96" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R96">
+        <v>2023</v>
+      </c>
+      <c r="S96" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A97" s="8" t="s">
         <v>119</v>
       </c>
@@ -5049,14 +5055,14 @@
       <c r="N97" s="8">
         <v>7.9565000000000001</v>
       </c>
-      <c r="Q97">
-        <v>2023</v>
-      </c>
-      <c r="R97" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R97">
+        <v>2023</v>
+      </c>
+      <c r="S97" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A98" s="8" t="s">
         <v>120</v>
       </c>
@@ -5081,14 +5087,14 @@
       <c r="N98" s="8">
         <v>-61.927040990000002</v>
       </c>
-      <c r="Q98">
-        <v>2023</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R98">
+        <v>2023</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A99" s="8" t="s">
         <v>121</v>
       </c>
@@ -5113,14 +5119,14 @@
       <c r="N99" s="8">
         <v>-66.832850160000007</v>
       </c>
-      <c r="Q99">
-        <v>2023</v>
-      </c>
-      <c r="R99" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R99">
+        <v>2023</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A100" s="8" t="s">
         <v>122</v>
       </c>
@@ -5145,14 +5151,14 @@
       <c r="N100" s="8">
         <v>4.4707968129999998</v>
       </c>
-      <c r="Q100">
-        <v>2023</v>
-      </c>
-      <c r="R100" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R100">
+        <v>2023</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A101" s="8" t="s">
         <v>123</v>
       </c>
@@ -5177,14 +5183,14 @@
       <c r="N101" s="8">
         <v>19.528555999999998</v>
       </c>
-      <c r="Q101">
-        <v>2023</v>
-      </c>
-      <c r="R101" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R101">
+        <v>2023</v>
+      </c>
+      <c r="S101" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A102" s="8" t="s">
         <v>124</v>
       </c>
@@ -5209,14 +5215,14 @@
       <c r="N102" s="8">
         <v>-62.444499999999998</v>
       </c>
-      <c r="Q102">
-        <v>2023</v>
-      </c>
-      <c r="R102" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R102">
+        <v>2023</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A103" s="8" t="s">
         <v>125</v>
       </c>
@@ -5241,14 +5247,14 @@
       <c r="N103" s="8">
         <v>18.183366020000001</v>
       </c>
-      <c r="Q103">
-        <v>2023</v>
-      </c>
-      <c r="R103" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R103">
+        <v>2023</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A104" s="8" t="s">
         <v>126</v>
       </c>
@@ -5273,14 +5279,14 @@
       <c r="N104" s="8">
         <v>37.13267441</v>
       </c>
-      <c r="Q104">
-        <v>2023</v>
-      </c>
-      <c r="R104" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R104">
+        <v>2023</v>
+      </c>
+      <c r="S104" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A105" s="8" t="s">
         <v>127</v>
       </c>
@@ -5305,14 +5311,14 @@
       <c r="N105" s="8">
         <v>-2.1298016039999998</v>
       </c>
-      <c r="Q105">
-        <v>2023</v>
-      </c>
-      <c r="R105" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R105">
+        <v>2023</v>
+      </c>
+      <c r="S105" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A106" s="8" t="s">
         <v>128</v>
       </c>
@@ -5337,14 +5343,14 @@
       <c r="N106" s="8">
         <v>11.92158339</v>
       </c>
-      <c r="Q106">
-        <v>2023</v>
-      </c>
-      <c r="R106" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R106">
+        <v>2023</v>
+      </c>
+      <c r="S106" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A107" s="8" t="s">
         <v>129</v>
       </c>
@@ -5369,14 +5375,14 @@
       <c r="N107" s="8">
         <v>-14.43999878</v>
       </c>
-      <c r="Q107">
-        <v>2023</v>
-      </c>
-      <c r="R107" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R107">
+        <v>2023</v>
+      </c>
+      <c r="S107" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A108" s="8" t="s">
         <v>130</v>
       </c>
@@ -5401,14 +5407,14 @@
       <c r="N108" s="8">
         <v>-7.5244226200000002</v>
       </c>
-      <c r="Q108">
-        <v>2023</v>
-      </c>
-      <c r="R108" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R108">
+        <v>2023</v>
+      </c>
+      <c r="S108" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A109" s="8" t="s">
         <v>131</v>
       </c>
@@ -5433,14 +5439,14 @@
       <c r="N109" s="8">
         <v>-19.836278249999999</v>
       </c>
-      <c r="Q109">
-        <v>2023</v>
-      </c>
-      <c r="R109" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R109">
+        <v>2023</v>
+      </c>
+      <c r="S109" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A110" s="8" t="s">
         <v>132</v>
       </c>
@@ -5465,14 +5471,14 @@
       <c r="N110" s="8">
         <v>11.01435646</v>
       </c>
-      <c r="Q110">
-        <v>2023</v>
-      </c>
-      <c r="R110" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R110">
+        <v>2023</v>
+      </c>
+      <c r="S110" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A111" s="8" t="s">
         <v>133</v>
       </c>
@@ -5497,14 +5503,14 @@
       <c r="N111" s="8">
         <v>-1.5315212229999999</v>
       </c>
-      <c r="Q111">
-        <v>2023</v>
-      </c>
-      <c r="R111" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R111">
+        <v>2023</v>
+      </c>
+      <c r="S111" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A112" s="8" t="s">
         <v>134</v>
       </c>
@@ -5529,14 +5535,14 @@
       <c r="N112" s="8">
         <v>9.2276498389999997</v>
       </c>
-      <c r="Q112">
-        <v>2023</v>
-      </c>
-      <c r="R112" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R112">
+        <v>2023</v>
+      </c>
+      <c r="S112" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A113" s="8" t="s">
         <v>135</v>
       </c>
@@ -5561,14 +5567,14 @@
       <c r="N113" s="8">
         <v>-13.069243520000001</v>
       </c>
-      <c r="Q113">
-        <v>2023</v>
-      </c>
-      <c r="R113" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R113">
+        <v>2023</v>
+      </c>
+      <c r="S113" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A114" s="8" t="s">
         <v>136</v>
       </c>
@@ -5593,14 +5599,14 @@
       <c r="N114" s="8">
         <v>-4.3069412500000004</v>
       </c>
-      <c r="Q114">
-        <v>2023</v>
-      </c>
-      <c r="R114" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R114">
+        <v>2023</v>
+      </c>
+      <c r="S114" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A115" s="8" t="s">
         <v>137</v>
       </c>
@@ -5625,14 +5631,14 @@
       <c r="N115" s="8">
         <v>-9.7600000000000006E-2</v>
       </c>
-      <c r="Q115">
-        <v>2023</v>
-      </c>
-      <c r="R115" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R115">
+        <v>2023</v>
+      </c>
+      <c r="S115" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A116" s="8" t="s">
         <v>138</v>
       </c>
@@ -5657,14 +5663,14 @@
       <c r="N116" s="8">
         <v>-16.263715829999999</v>
       </c>
-      <c r="Q116">
-        <v>2023</v>
-      </c>
-      <c r="R116" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R116">
+        <v>2023</v>
+      </c>
+      <c r="S116" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A117" s="8" t="s">
         <v>139</v>
       </c>
@@ -5689,14 +5695,14 @@
       <c r="N117" s="8">
         <v>6.2475211760000002</v>
       </c>
-      <c r="Q117">
-        <v>2023</v>
-      </c>
-      <c r="R117" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R117">
+        <v>2023</v>
+      </c>
+      <c r="S117" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A118" s="8" t="s">
         <v>140</v>
       </c>
@@ -5721,14 +5727,14 @@
       <c r="N118" s="8">
         <v>-3.8871839160000001</v>
       </c>
-      <c r="Q118">
-        <v>2023</v>
-      </c>
-      <c r="R118" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R118">
+        <v>2023</v>
+      </c>
+      <c r="S118" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A119" s="8" t="s">
         <v>141</v>
       </c>
@@ -5753,14 +5759,14 @@
       <c r="N119" s="8">
         <v>-30.230191390000002</v>
       </c>
-      <c r="Q119">
-        <v>2023</v>
-      </c>
-      <c r="R119" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R119">
+        <v>2023</v>
+      </c>
+      <c r="S119" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A120" s="8" t="s">
         <v>142</v>
       </c>
@@ -5785,14 +5791,14 @@
       <c r="N120" s="8">
         <v>-6.520283869</v>
       </c>
-      <c r="Q120">
-        <v>2023</v>
-      </c>
-      <c r="R120" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R120">
+        <v>2023</v>
+      </c>
+      <c r="S120" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A121" s="8" t="s">
         <v>143</v>
       </c>
@@ -5817,14 +5823,14 @@
       <c r="N121" s="8">
         <v>10.03432329</v>
       </c>
-      <c r="Q121">
-        <v>2023</v>
-      </c>
-      <c r="R121" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R121">
+        <v>2023</v>
+      </c>
+      <c r="S121" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A122" s="8" t="s">
         <v>144</v>
       </c>
@@ -5849,14 +5855,14 @@
       <c r="N122" s="8">
         <v>7.9313541609999998</v>
       </c>
-      <c r="Q122">
-        <v>2023</v>
-      </c>
-      <c r="R122" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R122">
+        <v>2023</v>
+      </c>
+      <c r="S122" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A123" s="8" t="s">
         <v>145</v>
       </c>
@@ -5881,14 +5887,14 @@
       <c r="N123" s="8">
         <v>10.46547962</v>
       </c>
-      <c r="Q123">
-        <v>2023</v>
-      </c>
-      <c r="R123" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R123">
+        <v>2023</v>
+      </c>
+      <c r="S123" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A124" s="8" t="s">
         <v>146</v>
       </c>
@@ -5913,14 +5919,14 @@
       <c r="N124" s="8">
         <v>2.4936278459999999</v>
       </c>
-      <c r="Q124">
-        <v>2023</v>
-      </c>
-      <c r="R124" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R124">
+        <v>2023</v>
+      </c>
+      <c r="S124" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A125" s="8" t="s">
         <v>147</v>
       </c>
@@ -5945,14 +5951,14 @@
       <c r="N125" s="8">
         <v>3.7563410519999998</v>
       </c>
-      <c r="Q125">
-        <v>2023</v>
-      </c>
-      <c r="R125" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R125">
+        <v>2023</v>
+      </c>
+      <c r="S125" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A126" s="8" t="s">
         <v>148</v>
       </c>
@@ -5977,14 +5983,14 @@
       <c r="N126" s="8">
         <v>2.4846865220000001</v>
       </c>
-      <c r="Q126">
-        <v>2023</v>
-      </c>
-      <c r="R126" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R126">
+        <v>2023</v>
+      </c>
+      <c r="S126" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A127" s="8" t="s">
         <v>149</v>
       </c>
@@ -6009,14 +6015,14 @@
       <c r="N127" s="8">
         <v>1.4602557780000001</v>
       </c>
-      <c r="Q127">
-        <v>2023</v>
-      </c>
-      <c r="R127" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R127">
+        <v>2023</v>
+      </c>
+      <c r="S127" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A128" s="8" t="s">
         <v>150</v>
       </c>
@@ -6041,14 +6047,14 @@
       <c r="N128" s="8">
         <v>8.3099056680000007</v>
       </c>
-      <c r="Q128">
-        <v>2023</v>
-      </c>
-      <c r="R128" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R128">
+        <v>2023</v>
+      </c>
+      <c r="S128" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A129" s="8" t="s">
         <v>151</v>
       </c>
@@ -6073,14 +6079,14 @@
       <c r="N129" s="8">
         <v>10.184875549999999</v>
       </c>
-      <c r="Q129">
-        <v>2023</v>
-      </c>
-      <c r="R129" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R129">
+        <v>2023</v>
+      </c>
+      <c r="S129" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A130" s="8" t="s">
         <v>80</v>
       </c>
@@ -6105,14 +6111,14 @@
       <c r="N130" s="8">
         <v>5.1567195669999997</v>
       </c>
-      <c r="Q130">
-        <v>2023</v>
-      </c>
-      <c r="R130" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R130">
+        <v>2023</v>
+      </c>
+      <c r="S130" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A131" s="8" t="s">
         <v>152</v>
       </c>
@@ -6137,14 +6143,14 @@
       <c r="N131" s="8">
         <v>-2.2761682130000001</v>
       </c>
-      <c r="Q131">
-        <v>2023</v>
-      </c>
-      <c r="R131" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R131">
+        <v>2023</v>
+      </c>
+      <c r="S131" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A132" s="8" t="s">
         <v>153</v>
       </c>
@@ -6169,14 +6175,14 @@
       <c r="N132" s="8">
         <v>-10.07935236</v>
       </c>
-      <c r="Q132">
-        <v>2023</v>
-      </c>
-      <c r="R132" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R132">
+        <v>2023</v>
+      </c>
+      <c r="S132" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A133" s="8" t="s">
         <v>154</v>
       </c>
@@ -6201,14 +6207,14 @@
       <c r="N133" s="8">
         <v>-6.778891894</v>
       </c>
-      <c r="Q133">
-        <v>2023</v>
-      </c>
-      <c r="R133" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R133">
+        <v>2023</v>
+      </c>
+      <c r="S133" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A134" s="8" t="s">
         <v>155</v>
       </c>
@@ -6233,14 +6239,14 @@
       <c r="N134" s="8">
         <v>-13.81733726</v>
       </c>
-      <c r="Q134">
-        <v>2023</v>
-      </c>
-      <c r="R134" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R134">
+        <v>2023</v>
+      </c>
+      <c r="S134" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A135" s="8" t="s">
         <v>156</v>
       </c>
@@ -6265,14 +6271,14 @@
       <c r="N135" s="8">
         <v>-0.69895462900000005</v>
       </c>
-      <c r="Q135">
-        <v>2023</v>
-      </c>
-      <c r="R135" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R135">
+        <v>2023</v>
+      </c>
+      <c r="S135" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A136" s="8" t="s">
         <v>157</v>
       </c>
@@ -6297,14 +6303,14 @@
       <c r="N136" s="8">
         <v>6.4885280959999996</v>
       </c>
-      <c r="Q136">
-        <v>2023</v>
-      </c>
-      <c r="R136" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R136">
+        <v>2023</v>
+      </c>
+      <c r="S136" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A137" s="8" t="s">
         <v>158</v>
       </c>
@@ -6329,14 +6335,14 @@
       <c r="N137" s="8">
         <v>2.8056014280000001</v>
       </c>
-      <c r="Q137">
-        <v>2023</v>
-      </c>
-      <c r="R137" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R137">
+        <v>2023</v>
+      </c>
+      <c r="S137" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A138" s="8" t="s">
         <v>159</v>
       </c>
@@ -6361,14 +6367,14 @@
       <c r="N138" s="8">
         <v>-6.2617564489999999</v>
       </c>
-      <c r="Q138">
-        <v>2023</v>
-      </c>
-      <c r="R138" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R138">
+        <v>2023</v>
+      </c>
+      <c r="S138" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A139" s="8" t="s">
         <v>160</v>
       </c>
@@ -6393,14 +6399,14 @@
       <c r="N139" s="8">
         <v>2.7578496989999999</v>
       </c>
-      <c r="Q139">
-        <v>2023</v>
-      </c>
-      <c r="R139" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R139">
+        <v>2023</v>
+      </c>
+      <c r="S139" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A140" s="8" t="s">
         <v>161</v>
       </c>
@@ -6425,14 +6431,14 @@
       <c r="N140" s="8">
         <v>5.7857480399999996</v>
       </c>
-      <c r="Q140">
-        <v>2023</v>
-      </c>
-      <c r="R140" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R140">
+        <v>2023</v>
+      </c>
+      <c r="S140" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A141" s="8" t="s">
         <v>162</v>
       </c>
@@ -6457,14 +6463,14 @@
       <c r="N141" s="8">
         <v>26.941331649999999</v>
       </c>
-      <c r="Q141">
-        <v>2023</v>
-      </c>
-      <c r="R141" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R141">
+        <v>2023</v>
+      </c>
+      <c r="S141" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A142" s="8" t="s">
         <v>163</v>
       </c>
@@ -6489,14 +6495,14 @@
       <c r="N142" s="8">
         <v>-11.99370944</v>
       </c>
-      <c r="Q142">
-        <v>2023</v>
-      </c>
-      <c r="R142" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R142">
+        <v>2023</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A143" s="8" t="s">
         <v>164</v>
       </c>
@@ -6521,14 +6527,14 @@
       <c r="N143" s="8">
         <v>-18.224241769999999</v>
       </c>
-      <c r="Q143">
-        <v>2023</v>
-      </c>
-      <c r="R143" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R143">
+        <v>2023</v>
+      </c>
+      <c r="S143" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A144" s="8" t="s">
         <v>165</v>
       </c>
@@ -6553,14 +6559,14 @@
       <c r="N144" s="8">
         <v>29.53577379</v>
       </c>
-      <c r="Q144">
-        <v>2023</v>
-      </c>
-      <c r="R144" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R144">
+        <v>2023</v>
+      </c>
+      <c r="S144" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A145" s="8" t="s">
         <v>166</v>
       </c>
@@ -6585,14 +6591,14 @@
       <c r="N145" s="8">
         <v>-13.9793457831161</v>
       </c>
-      <c r="Q145">
-        <v>2023</v>
-      </c>
-      <c r="R145" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R145">
+        <v>2023</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A146" s="8" t="s">
         <v>167</v>
       </c>
@@ -6617,14 +6623,14 @@
       <c r="N146" s="8">
         <v>-9.2412132642648093</v>
       </c>
-      <c r="Q146">
-        <v>2023</v>
-      </c>
-      <c r="R146" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R146">
+        <v>2023</v>
+      </c>
+      <c r="S146" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A147" s="8" t="s">
         <v>168</v>
       </c>
@@ -6649,14 +6655,14 @@
       <c r="N147" s="8">
         <v>-11.8813464279933</v>
       </c>
-      <c r="Q147">
-        <v>2023</v>
-      </c>
-      <c r="R147" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R147">
+        <v>2023</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A148" s="8" t="s">
         <v>169</v>
       </c>
@@ -6681,14 +6687,14 @@
       <c r="N148" s="8">
         <v>-14.0328424558056</v>
       </c>
-      <c r="Q148">
-        <v>2023</v>
-      </c>
-      <c r="R148" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R148">
+        <v>2023</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A149" s="8" t="s">
         <v>170</v>
       </c>
@@ -6713,14 +6719,14 @@
       <c r="N149" s="8">
         <v>-4.3383733802554296</v>
       </c>
-      <c r="Q149">
-        <v>2023</v>
-      </c>
-      <c r="R149" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R149">
+        <v>2023</v>
+      </c>
+      <c r="S149" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A150" s="8" t="s">
         <v>171</v>
       </c>
@@ -6745,14 +6751,14 @@
       <c r="N150" s="8">
         <v>-4.7850524716144696</v>
       </c>
-      <c r="Q150">
-        <v>2023</v>
-      </c>
-      <c r="R150" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="R150">
+        <v>2023</v>
+      </c>
+      <c r="S150" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A151" s="8" t="s">
         <v>27</v>
       </c>
@@ -6777,14 +6783,14 @@
       <c r="N151" s="8">
         <v>-10.75279868</v>
       </c>
-      <c r="Q151">
-        <v>2023</v>
-      </c>
-      <c r="R151" s="9" t="s">
+      <c r="R151">
+        <v>2023</v>
+      </c>
+      <c r="S151" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A152" s="8" t="s">
         <v>28</v>
       </c>
@@ -6809,14 +6815,14 @@
       <c r="N152" s="8">
         <v>8.0469200749999992</v>
       </c>
-      <c r="Q152">
-        <v>2023</v>
-      </c>
-      <c r="R152" s="9" t="s">
+      <c r="R152">
+        <v>2023</v>
+      </c>
+      <c r="S152" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A153" s="8" t="s">
         <v>29</v>
       </c>
@@ -6841,14 +6847,14 @@
       <c r="N153" s="8">
         <v>3.4395024059999999</v>
       </c>
-      <c r="Q153">
-        <v>2023</v>
-      </c>
-      <c r="R153" s="9" t="s">
+      <c r="R153">
+        <v>2023</v>
+      </c>
+      <c r="S153" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A154" s="8" t="s">
         <v>30</v>
       </c>
@@ -6873,14 +6879,14 @@
       <c r="N154" s="8">
         <v>-0.486138668</v>
       </c>
-      <c r="Q154">
-        <v>2023</v>
-      </c>
-      <c r="R154" s="9" t="s">
+      <c r="R154">
+        <v>2023</v>
+      </c>
+      <c r="S154" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A155" s="8" t="s">
         <v>31</v>
       </c>
@@ -6905,14 +6911,14 @@
       <c r="N155" s="8">
         <v>-13.049042610000001</v>
       </c>
-      <c r="Q155">
-        <v>2023</v>
-      </c>
-      <c r="R155" s="9" t="s">
+      <c r="R155">
+        <v>2023</v>
+      </c>
+      <c r="S155" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A156" s="8" t="s">
         <v>32</v>
       </c>
@@ -6937,14 +6943,14 @@
       <c r="N156" s="8">
         <v>-6.2837318639999999</v>
       </c>
-      <c r="Q156">
-        <v>2023</v>
-      </c>
-      <c r="R156" s="9" t="s">
+      <c r="R156">
+        <v>2023</v>
+      </c>
+      <c r="S156" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A157" s="8" t="s">
         <v>33</v>
       </c>
@@ -6969,14 +6975,14 @@
       <c r="N157" s="8">
         <v>4.0079239260000001</v>
       </c>
-      <c r="Q157">
-        <v>2023</v>
-      </c>
-      <c r="R157" s="9" t="s">
+      <c r="R157">
+        <v>2023</v>
+      </c>
+      <c r="S157" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A158" s="8" t="s">
         <v>34</v>
       </c>
@@ -7001,14 +7007,14 @@
       <c r="N158" s="8">
         <v>-23.814597030000002</v>
       </c>
-      <c r="Q158">
-        <v>2023</v>
-      </c>
-      <c r="R158" s="9" t="s">
+      <c r="R158">
+        <v>2023</v>
+      </c>
+      <c r="S158" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A159" s="8" t="s">
         <v>37</v>
       </c>
@@ -7033,14 +7039,14 @@
       <c r="N159" s="8">
         <v>-16.735652930000001</v>
       </c>
-      <c r="Q159">
-        <v>2023</v>
-      </c>
-      <c r="R159" s="9" t="s">
+      <c r="R159">
+        <v>2023</v>
+      </c>
+      <c r="S159" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A160" s="8" t="s">
         <v>38</v>
       </c>
@@ -7065,14 +7071,14 @@
       <c r="N160" s="8">
         <v>-7.4678750020000004</v>
       </c>
-      <c r="Q160">
-        <v>2023</v>
-      </c>
-      <c r="R160" s="9" t="s">
+      <c r="R160">
+        <v>2023</v>
+      </c>
+      <c r="S160" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A161" s="8" t="s">
         <v>39</v>
       </c>
@@ -7097,14 +7103,14 @@
       <c r="N161" s="8">
         <v>-25.269243929999998</v>
       </c>
-      <c r="Q161">
-        <v>2023</v>
-      </c>
-      <c r="R161" s="9" t="s">
+      <c r="R161">
+        <v>2023</v>
+      </c>
+      <c r="S161" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A162" s="8" t="s">
         <v>40</v>
       </c>
@@ -7129,14 +7135,14 @@
       <c r="N162" s="8">
         <v>-7.4820748479999999</v>
       </c>
-      <c r="Q162">
-        <v>2023</v>
-      </c>
-      <c r="R162" s="9" t="s">
+      <c r="R162">
+        <v>2023</v>
+      </c>
+      <c r="S162" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A163" s="8" t="s">
         <v>41</v>
       </c>
@@ -7161,14 +7167,14 @@
       <c r="N163" s="8">
         <v>-80.704050510000002</v>
       </c>
-      <c r="Q163">
-        <v>2023</v>
-      </c>
-      <c r="R163" s="9" t="s">
+      <c r="R163">
+        <v>2023</v>
+      </c>
+      <c r="S163" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A164" s="8" t="s">
         <v>42</v>
       </c>
@@ -7193,14 +7199,14 @@
       <c r="N164" s="8">
         <v>-87.901547930000007</v>
       </c>
-      <c r="Q164">
-        <v>2023</v>
-      </c>
-      <c r="R164" s="9" t="s">
+      <c r="R164">
+        <v>2023</v>
+      </c>
+      <c r="S164" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A165" s="8" t="s">
         <v>43</v>
       </c>
@@ -7225,14 +7231,14 @@
       <c r="N165" s="8">
         <v>-83.776299710000004</v>
       </c>
-      <c r="Q165">
-        <v>2023</v>
-      </c>
-      <c r="R165" s="9" t="s">
+      <c r="R165">
+        <v>2023</v>
+      </c>
+      <c r="S165" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A166" s="8" t="s">
         <v>44</v>
       </c>
@@ -7257,14 +7263,14 @@
       <c r="N166" s="8">
         <v>-67.416404729999996</v>
       </c>
-      <c r="Q166">
-        <v>2023</v>
-      </c>
-      <c r="R166" s="9" t="s">
+      <c r="R166">
+        <v>2023</v>
+      </c>
+      <c r="S166" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A167" s="8" t="s">
         <v>45</v>
       </c>
@@ -7289,14 +7295,14 @@
       <c r="N167" s="8">
         <v>-7.007313591</v>
       </c>
-      <c r="Q167">
-        <v>2023</v>
-      </c>
-      <c r="R167" s="9" t="s">
+      <c r="R167">
+        <v>2023</v>
+      </c>
+      <c r="S167" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A168" s="8" t="s">
         <v>55</v>
       </c>
@@ -7321,14 +7327,14 @@
       <c r="N168" s="8">
         <v>-0.90651470199999995</v>
       </c>
-      <c r="Q168">
-        <v>2023</v>
-      </c>
-      <c r="R168" s="9" t="s">
+      <c r="R168">
+        <v>2023</v>
+      </c>
+      <c r="S168" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A169" s="8" t="s">
         <v>58</v>
       </c>
@@ -7353,14 +7359,14 @@
       <c r="N169" s="8">
         <v>-15.497412710000001</v>
       </c>
-      <c r="Q169">
-        <v>2023</v>
-      </c>
-      <c r="R169" s="9" t="s">
+      <c r="R169">
+        <v>2023</v>
+      </c>
+      <c r="S169" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A170" s="8" t="s">
         <v>65</v>
       </c>
@@ -7385,14 +7391,14 @@
       <c r="N170" s="8">
         <v>2.666517759</v>
       </c>
-      <c r="Q170">
-        <v>2023</v>
-      </c>
-      <c r="R170" s="9" t="s">
+      <c r="R170">
+        <v>2023</v>
+      </c>
+      <c r="S170" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A171" s="8" t="s">
         <v>68</v>
       </c>
@@ -7417,14 +7423,14 @@
       <c r="N171" s="8">
         <v>-22.272626949999999</v>
       </c>
-      <c r="Q171">
-        <v>2023</v>
-      </c>
-      <c r="R171" s="9" t="s">
+      <c r="R171">
+        <v>2023</v>
+      </c>
+      <c r="S171" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A172" s="8" t="s">
         <v>73</v>
       </c>
@@ -7449,14 +7455,14 @@
       <c r="N172" s="8">
         <v>-18.837144739999999</v>
       </c>
-      <c r="Q172">
-        <v>2023</v>
-      </c>
-      <c r="R172" s="9" t="s">
+      <c r="R172">
+        <v>2023</v>
+      </c>
+      <c r="S172" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A173" s="8" t="s">
         <v>75</v>
       </c>
@@ -7481,14 +7487,14 @@
       <c r="N173" s="8">
         <v>-6.1015876499999999</v>
       </c>
-      <c r="Q173">
-        <v>2023</v>
-      </c>
-      <c r="R173" s="9" t="s">
+      <c r="R173">
+        <v>2023</v>
+      </c>
+      <c r="S173" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A174" s="8" t="s">
         <v>78</v>
       </c>
@@ -7513,14 +7519,14 @@
       <c r="N174" s="8">
         <v>-1.539818465</v>
       </c>
-      <c r="Q174">
-        <v>2023</v>
-      </c>
-      <c r="R174" s="9" t="s">
+      <c r="R174">
+        <v>2023</v>
+      </c>
+      <c r="S174" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A175" s="8" t="s">
         <v>82</v>
       </c>
@@ -7545,14 +7551,14 @@
       <c r="N175" s="8">
         <v>5.1260000000000003</v>
       </c>
-      <c r="Q175">
-        <v>2023</v>
-      </c>
-      <c r="R175" s="9" t="s">
+      <c r="R175">
+        <v>2023</v>
+      </c>
+      <c r="S175" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A176" s="8" t="s">
         <v>86</v>
       </c>
@@ -7577,14 +7583,14 @@
       <c r="N176" s="8">
         <v>-14.87378653</v>
       </c>
-      <c r="Q176">
-        <v>2023</v>
-      </c>
-      <c r="R176" s="9" t="s">
+      <c r="R176">
+        <v>2023</v>
+      </c>
+      <c r="S176" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A177" s="8" t="s">
         <v>109</v>
       </c>
@@ -7609,14 +7615,14 @@
       <c r="N177" s="8">
         <v>3.3533660429999999</v>
       </c>
-      <c r="Q177">
-        <v>2023</v>
-      </c>
-      <c r="R177" s="9" t="s">
+      <c r="R177">
+        <v>2023</v>
+      </c>
+      <c r="S177" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A178" s="8" t="s">
         <v>73</v>
       </c>
@@ -7641,14 +7647,14 @@
       <c r="N178" s="8">
         <v>-19.34593302</v>
       </c>
-      <c r="Q178">
-        <v>2023</v>
-      </c>
-      <c r="R178" s="9" t="s">
+      <c r="R178">
+        <v>2023</v>
+      </c>
+      <c r="S178" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A179" s="8" t="s">
         <v>113</v>
       </c>
@@ -7673,14 +7679,14 @@
       <c r="N179" s="8">
         <v>9.3036314489999992</v>
       </c>
-      <c r="Q179">
-        <v>2023</v>
-      </c>
-      <c r="R179" s="9" t="s">
+      <c r="R179">
+        <v>2023</v>
+      </c>
+      <c r="S179" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A180" s="8" t="s">
         <v>114</v>
       </c>
@@ -7705,14 +7711,14 @@
       <c r="N180" s="8">
         <v>-10.227966670000001</v>
       </c>
-      <c r="Q180">
-        <v>2023</v>
-      </c>
-      <c r="R180" s="9" t="s">
+      <c r="R180">
+        <v>2023</v>
+      </c>
+      <c r="S180" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A181" s="8" t="s">
         <v>115</v>
       </c>
@@ -7737,14 +7743,14 @@
       <c r="N181" s="8">
         <v>-19.392710879999999</v>
       </c>
-      <c r="Q181">
-        <v>2023</v>
-      </c>
-      <c r="R181" s="9" t="s">
+      <c r="R181">
+        <v>2023</v>
+      </c>
+      <c r="S181" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A182" s="8" t="s">
         <v>93</v>
       </c>
@@ -7769,14 +7775,14 @@
       <c r="N182" s="8">
         <v>-8.2675773570000004</v>
       </c>
-      <c r="Q182">
-        <v>2023</v>
-      </c>
-      <c r="R182" s="9" t="s">
+      <c r="R182">
+        <v>2023</v>
+      </c>
+      <c r="S182" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A183" s="8" t="s">
         <v>116</v>
       </c>
@@ -7801,14 +7807,14 @@
       <c r="N183" s="8">
         <v>-15.666708979999999</v>
       </c>
-      <c r="Q183">
-        <v>2023</v>
-      </c>
-      <c r="R183" s="9" t="s">
+      <c r="R183">
+        <v>2023</v>
+      </c>
+      <c r="S183" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A184" s="8" t="s">
         <v>120</v>
       </c>
@@ -7833,14 +7839,14 @@
       <c r="N184" s="8">
         <v>-76.180095960000003</v>
       </c>
-      <c r="Q184">
-        <v>2023</v>
-      </c>
-      <c r="R184" s="9" t="s">
+      <c r="R184">
+        <v>2023</v>
+      </c>
+      <c r="S184" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A185" s="8" t="s">
         <v>121</v>
       </c>
@@ -7865,14 +7871,14 @@
       <c r="N185" s="8">
         <v>-71.326618800000006</v>
       </c>
-      <c r="Q185">
-        <v>2023</v>
-      </c>
-      <c r="R185" s="9" t="s">
+      <c r="R185">
+        <v>2023</v>
+      </c>
+      <c r="S185" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A186" s="8" t="s">
         <v>122</v>
       </c>
@@ -7897,14 +7903,14 @@
       <c r="N186" s="8">
         <v>2.7726017010000001</v>
       </c>
-      <c r="Q186">
-        <v>2023</v>
-      </c>
-      <c r="R186" s="9" t="s">
+      <c r="R186">
+        <v>2023</v>
+      </c>
+      <c r="S186" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A187" s="8" t="s">
         <v>123</v>
       </c>
@@ -7929,14 +7935,14 @@
       <c r="N187" s="8">
         <v>15.088628010000001</v>
       </c>
-      <c r="Q187">
-        <v>2023</v>
-      </c>
-      <c r="R187" s="9" t="s">
+      <c r="R187">
+        <v>2023</v>
+      </c>
+      <c r="S187" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A188" s="8" t="s">
         <v>125</v>
       </c>
@@ -7961,14 +7967,14 @@
       <c r="N188" s="8">
         <v>12.728205790000001</v>
       </c>
-      <c r="Q188">
-        <v>2023</v>
-      </c>
-      <c r="R188" s="9" t="s">
+      <c r="R188">
+        <v>2023</v>
+      </c>
+      <c r="S188" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A189" s="8" t="s">
         <v>126</v>
       </c>
@@ -7993,14 +7999,14 @@
       <c r="N189" s="8">
         <v>29.97799281</v>
       </c>
-      <c r="Q189">
-        <v>2023</v>
-      </c>
-      <c r="R189" s="9" t="s">
+      <c r="R189">
+        <v>2023</v>
+      </c>
+      <c r="S189" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A190" s="8" t="s">
         <v>127</v>
       </c>
@@ -8025,14 +8031,14 @@
       <c r="N190" s="8">
         <v>-5.4619916379999998</v>
       </c>
-      <c r="Q190">
-        <v>2023</v>
-      </c>
-      <c r="R190" s="9" t="s">
+      <c r="R190">
+        <v>2023</v>
+      </c>
+      <c r="S190" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A191" s="8" t="s">
         <v>129</v>
       </c>
@@ -8057,14 +8063,14 @@
       <c r="N191" s="8">
         <v>-9.9070438210000002</v>
       </c>
-      <c r="Q191">
-        <v>2023</v>
-      </c>
-      <c r="R191" s="9" t="s">
+      <c r="R191">
+        <v>2023</v>
+      </c>
+      <c r="S191" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A192" s="8" t="s">
         <v>130</v>
       </c>
@@ -8089,14 +8095,14 @@
       <c r="N192" s="8">
         <v>-3.6556774870000002</v>
       </c>
-      <c r="Q192">
-        <v>2023</v>
-      </c>
-      <c r="R192" s="9" t="s">
+      <c r="R192">
+        <v>2023</v>
+      </c>
+      <c r="S192" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A193" s="8" t="s">
         <v>131</v>
       </c>
@@ -8121,14 +8127,14 @@
       <c r="N193" s="8">
         <v>-24.19549237</v>
       </c>
-      <c r="Q193">
-        <v>2023</v>
-      </c>
-      <c r="R193" s="9" t="s">
+      <c r="R193">
+        <v>2023</v>
+      </c>
+      <c r="S193" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A194" s="8" t="s">
         <v>133</v>
       </c>
@@ -8153,14 +8159,14 @@
       <c r="N194" s="8">
         <v>-4.1043944620000001</v>
       </c>
-      <c r="Q194">
-        <v>2023</v>
-      </c>
-      <c r="R194" s="9" t="s">
+      <c r="R194">
+        <v>2023</v>
+      </c>
+      <c r="S194" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A195" s="8" t="s">
         <v>134</v>
       </c>
@@ -8185,14 +8191,14 @@
       <c r="N195" s="8">
         <v>-0.87875471699999996</v>
       </c>
-      <c r="Q195">
-        <v>2023</v>
-      </c>
-      <c r="R195" s="9" t="s">
+      <c r="R195">
+        <v>2023</v>
+      </c>
+      <c r="S195" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A196" s="8" t="s">
         <v>136</v>
       </c>
@@ -8217,14 +8223,14 @@
       <c r="N196" s="8">
         <v>-4.762329308</v>
       </c>
-      <c r="Q196">
-        <v>2023</v>
-      </c>
-      <c r="R196" s="9" t="s">
+      <c r="R196">
+        <v>2023</v>
+      </c>
+      <c r="S196" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A197" s="8" t="s">
         <v>137</v>
       </c>
@@ -8249,14 +8255,14 @@
       <c r="N197" s="8">
         <v>-6.7599999999999993E-2</v>
       </c>
-      <c r="Q197">
-        <v>2023</v>
-      </c>
-      <c r="R197" s="9" t="s">
+      <c r="R197">
+        <v>2023</v>
+      </c>
+      <c r="S197" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A198" s="8" t="s">
         <v>138</v>
       </c>
@@ -8281,14 +8287,14 @@
       <c r="N198" s="8">
         <v>-9.8535810609999999</v>
       </c>
-      <c r="Q198">
-        <v>2023</v>
-      </c>
-      <c r="R198" s="9" t="s">
+      <c r="R198">
+        <v>2023</v>
+      </c>
+      <c r="S198" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A199" s="8" t="s">
         <v>140</v>
       </c>
@@ -8313,14 +8319,14 @@
       <c r="N199" s="8">
         <v>-6.7536605109999996</v>
       </c>
-      <c r="Q199">
-        <v>2023</v>
-      </c>
-      <c r="R199" s="9" t="s">
+      <c r="R199">
+        <v>2023</v>
+      </c>
+      <c r="S199" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A200" s="8" t="s">
         <v>93</v>
       </c>
@@ -8345,14 +8351,14 @@
       <c r="N200" s="8">
         <v>1.590599001</v>
       </c>
-      <c r="Q200">
-        <v>2023</v>
-      </c>
-      <c r="R200" s="9" t="s">
+      <c r="R200">
+        <v>2023</v>
+      </c>
+      <c r="S200" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A201" s="8" t="s">
         <v>151</v>
       </c>
@@ -8377,14 +8383,14 @@
       <c r="N201" s="8">
         <v>5.1896303039999996</v>
       </c>
-      <c r="Q201">
-        <v>2023</v>
-      </c>
-      <c r="R201" s="9" t="s">
+      <c r="R201">
+        <v>2023</v>
+      </c>
+      <c r="S201" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A202" s="8" t="s">
         <v>81</v>
       </c>
@@ -8409,14 +8415,14 @@
       <c r="N202" s="8">
         <v>15.72045307</v>
       </c>
-      <c r="Q202">
-        <v>2023</v>
-      </c>
-      <c r="R202" s="9" t="s">
+      <c r="R202">
+        <v>2023</v>
+      </c>
+      <c r="S202" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A203" s="8" t="s">
         <v>80</v>
       </c>
@@ -8441,14 +8447,14 @@
       <c r="N203" s="8">
         <v>3.412125761</v>
       </c>
-      <c r="Q203">
-        <v>2023</v>
-      </c>
-      <c r="R203" s="9" t="s">
+      <c r="R203">
+        <v>2023</v>
+      </c>
+      <c r="S203" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A204" s="8" t="s">
         <v>153</v>
       </c>
@@ -8473,14 +8479,14 @@
       <c r="N204" s="8">
         <v>-11.944881000000001</v>
       </c>
-      <c r="Q204">
-        <v>2023</v>
-      </c>
-      <c r="R204" s="9" t="s">
+      <c r="R204">
+        <v>2023</v>
+      </c>
+      <c r="S204" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A205" s="8" t="s">
         <v>154</v>
       </c>
@@ -8505,14 +8511,14 @@
       <c r="N205" s="8">
         <v>-3.6278476</v>
       </c>
-      <c r="Q205">
-        <v>2023</v>
-      </c>
-      <c r="R205" s="9" t="s">
+      <c r="R205">
+        <v>2023</v>
+      </c>
+      <c r="S205" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A206" s="8" t="s">
         <v>155</v>
       </c>
@@ -8537,14 +8543,14 @@
       <c r="N206" s="8">
         <v>-13.505633810000001</v>
       </c>
-      <c r="Q206">
-        <v>2023</v>
-      </c>
-      <c r="R206" s="9" t="s">
+      <c r="R206">
+        <v>2023</v>
+      </c>
+      <c r="S206" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A207" s="8" t="s">
         <v>156</v>
       </c>
@@ -8569,14 +8575,14 @@
       <c r="N207" s="8">
         <v>-0.585912777</v>
       </c>
-      <c r="Q207">
-        <v>2023</v>
-      </c>
-      <c r="R207" s="9" t="s">
+      <c r="R207">
+        <v>2023</v>
+      </c>
+      <c r="S207" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A208" s="8" t="s">
         <v>159</v>
       </c>
@@ -8601,14 +8607,14 @@
       <c r="N208" s="8">
         <v>9.6563079910000003</v>
       </c>
-      <c r="Q208">
-        <v>2023</v>
-      </c>
-      <c r="R208" s="9" t="s">
+      <c r="R208">
+        <v>2023</v>
+      </c>
+      <c r="S208" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A209" s="8" t="s">
         <v>161</v>
       </c>
@@ -8633,14 +8639,14 @@
       <c r="N209" s="8">
         <v>4.7925659569999999</v>
       </c>
-      <c r="Q209">
-        <v>2023</v>
-      </c>
-      <c r="R209" s="9" t="s">
+      <c r="R209">
+        <v>2023</v>
+      </c>
+      <c r="S209" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A210" s="8" t="s">
         <v>162</v>
       </c>
@@ -8665,14 +8671,14 @@
       <c r="N210" s="8">
         <v>31.115892639999998</v>
       </c>
-      <c r="Q210">
-        <v>2023</v>
-      </c>
-      <c r="R210" s="9" t="s">
+      <c r="R210">
+        <v>2023</v>
+      </c>
+      <c r="S210" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A211" s="8" t="s">
         <v>163</v>
       </c>
@@ -8697,14 +8703,14 @@
       <c r="N211" s="8">
         <v>-11.41380236</v>
       </c>
-      <c r="Q211">
-        <v>2023</v>
-      </c>
-      <c r="R211" s="9" t="s">
+      <c r="R211">
+        <v>2023</v>
+      </c>
+      <c r="S211" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A212" s="8" t="s">
         <v>164</v>
       </c>
@@ -8729,14 +8735,14 @@
       <c r="N212" s="8">
         <v>-17.35509188</v>
       </c>
-      <c r="Q212">
-        <v>2023</v>
-      </c>
-      <c r="R212" s="9" t="s">
+      <c r="R212">
+        <v>2023</v>
+      </c>
+      <c r="S212" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A213" s="8" t="s">
         <v>166</v>
       </c>
@@ -8761,14 +8767,14 @@
       <c r="N213" s="8">
         <v>-22.033341781585399</v>
       </c>
-      <c r="Q213">
-        <v>2023</v>
-      </c>
-      <c r="R213" s="9" t="s">
+      <c r="R213">
+        <v>2023</v>
+      </c>
+      <c r="S213" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A214" s="8" t="s">
         <v>167</v>
       </c>
@@ -8793,14 +8799,14 @@
       <c r="N214" s="8">
         <v>-0.88264953006294</v>
       </c>
-      <c r="Q214">
-        <v>2023</v>
-      </c>
-      <c r="R214" s="9" t="s">
+      <c r="R214">
+        <v>2023</v>
+      </c>
+      <c r="S214" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A215" s="8" t="s">
         <v>168</v>
       </c>
@@ -8825,14 +8831,14 @@
       <c r="N215" s="8">
         <v>-11.0443063405055</v>
       </c>
-      <c r="Q215">
-        <v>2023</v>
-      </c>
-      <c r="R215" s="9" t="s">
+      <c r="R215">
+        <v>2023</v>
+      </c>
+      <c r="S215" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A216" s="8" t="s">
         <v>169</v>
       </c>
@@ -8857,14 +8863,14 @@
       <c r="N216" s="8">
         <v>-17.4081508481705</v>
       </c>
-      <c r="Q216">
-        <v>2023</v>
-      </c>
-      <c r="R216" s="9" t="s">
+      <c r="R216">
+        <v>2023</v>
+      </c>
+      <c r="S216" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A217" s="8" t="s">
         <v>170</v>
       </c>
@@ -8889,14 +8895,14 @@
       <c r="N217" s="8">
         <v>-14.343271319665799</v>
       </c>
-      <c r="Q217">
-        <v>2023</v>
-      </c>
-      <c r="R217" s="9" t="s">
+      <c r="R217">
+        <v>2023</v>
+      </c>
+      <c r="S217" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A218" s="8" t="s">
         <v>171</v>
       </c>
@@ -8921,14 +8927,14 @@
       <c r="N218" s="8">
         <v>-8.1087040540346802</v>
       </c>
-      <c r="Q218">
-        <v>2023</v>
-      </c>
-      <c r="R218" s="9" t="s">
+      <c r="R218">
+        <v>2023</v>
+      </c>
+      <c r="S218" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A219" s="8" t="s">
         <v>27</v>
       </c>
@@ -8953,14 +8959,14 @@
       <c r="N219" s="8">
         <v>-15.023173079999999</v>
       </c>
-      <c r="Q219">
-        <v>2023</v>
-      </c>
-      <c r="R219" s="9" t="s">
+      <c r="R219">
+        <v>2023</v>
+      </c>
+      <c r="S219" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A220" s="8" t="s">
         <v>28</v>
       </c>
@@ -8985,14 +8991,14 @@
       <c r="N220" s="8">
         <v>5.9247978699999999</v>
       </c>
-      <c r="Q220">
-        <v>2023</v>
-      </c>
-      <c r="R220" s="9" t="s">
+      <c r="R220">
+        <v>2023</v>
+      </c>
+      <c r="S220" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A221" s="8" t="s">
         <v>29</v>
       </c>
@@ -9017,14 +9023,14 @@
       <c r="N221" s="8">
         <v>-0.33963673700000002</v>
       </c>
-      <c r="Q221">
-        <v>2023</v>
-      </c>
-      <c r="R221" s="9" t="s">
+      <c r="R221">
+        <v>2023</v>
+      </c>
+      <c r="S221" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A222" s="8" t="s">
         <v>30</v>
       </c>
@@ -9049,14 +9055,14 @@
       <c r="N222" s="8">
         <v>0.73976086699999999</v>
       </c>
-      <c r="Q222">
-        <v>2023</v>
-      </c>
-      <c r="R222" s="9" t="s">
+      <c r="R222">
+        <v>2023</v>
+      </c>
+      <c r="S222" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A223" s="8" t="s">
         <v>31</v>
       </c>
@@ -9081,14 +9087,14 @@
       <c r="N223" s="8">
         <v>-16.31028882</v>
       </c>
-      <c r="Q223">
-        <v>2023</v>
-      </c>
-      <c r="R223" s="9" t="s">
+      <c r="R223">
+        <v>2023</v>
+      </c>
+      <c r="S223" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A224" s="8" t="s">
         <v>33</v>
       </c>
@@ -9113,14 +9119,14 @@
       <c r="N224" s="8">
         <v>0.281553899</v>
       </c>
-      <c r="Q224">
-        <v>2023</v>
-      </c>
-      <c r="R224" s="9" t="s">
+      <c r="R224">
+        <v>2023</v>
+      </c>
+      <c r="S224" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A225" s="8" t="s">
         <v>34</v>
       </c>
@@ -9145,14 +9151,14 @@
       <c r="N225" s="8">
         <v>-15.81772788</v>
       </c>
-      <c r="Q225">
-        <v>2023</v>
-      </c>
-      <c r="R225" s="9" t="s">
+      <c r="R225">
+        <v>2023</v>
+      </c>
+      <c r="S225" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A226" s="8" t="s">
         <v>37</v>
       </c>
@@ -9177,14 +9183,14 @@
       <c r="N226" s="8">
         <v>-17.24872697</v>
       </c>
-      <c r="Q226">
-        <v>2023</v>
-      </c>
-      <c r="R226" s="9" t="s">
+      <c r="R226">
+        <v>2023</v>
+      </c>
+      <c r="S226" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A227" s="8" t="s">
         <v>38</v>
       </c>
@@ -9209,14 +9215,14 @@
       <c r="N227" s="8">
         <v>-8.6086864009999999</v>
       </c>
-      <c r="Q227">
-        <v>2023</v>
-      </c>
-      <c r="R227" s="9" t="s">
+      <c r="R227">
+        <v>2023</v>
+      </c>
+      <c r="S227" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A228" s="8" t="s">
         <v>39</v>
       </c>
@@ -9241,14 +9247,14 @@
       <c r="N228" s="8">
         <v>-25.715956309999999</v>
       </c>
-      <c r="Q228">
-        <v>2023</v>
-      </c>
-      <c r="R228" s="9" t="s">
+      <c r="R228">
+        <v>2023</v>
+      </c>
+      <c r="S228" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A229" s="8" t="s">
         <v>40</v>
       </c>
@@ -9273,14 +9279,14 @@
       <c r="N229" s="8">
         <v>-12.953154830000001</v>
       </c>
-      <c r="Q229">
-        <v>2023</v>
-      </c>
-      <c r="R229" s="9" t="s">
+      <c r="R229">
+        <v>2023</v>
+      </c>
+      <c r="S229" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A230" s="8" t="s">
         <v>41</v>
       </c>
@@ -9305,14 +9311,14 @@
       <c r="N230" s="8">
         <v>-87.270748609999998</v>
       </c>
-      <c r="Q230">
-        <v>2023</v>
-      </c>
-      <c r="R230" s="9" t="s">
+      <c r="R230">
+        <v>2023</v>
+      </c>
+      <c r="S230" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A231" s="8" t="s">
         <v>42</v>
       </c>
@@ -9337,14 +9343,14 @@
       <c r="N231" s="8">
         <v>-87.846654839999999</v>
       </c>
-      <c r="Q231">
-        <v>2023</v>
-      </c>
-      <c r="R231" s="9" t="s">
+      <c r="R231">
+        <v>2023</v>
+      </c>
+      <c r="S231" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A232" s="8" t="s">
         <v>43</v>
       </c>
@@ -9369,14 +9375,14 @@
       <c r="N232" s="8">
         <v>-83.956940869999997</v>
       </c>
-      <c r="Q232">
-        <v>2023</v>
-      </c>
-      <c r="R232" s="9" t="s">
+      <c r="R232">
+        <v>2023</v>
+      </c>
+      <c r="S232" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A233" s="8" t="s">
         <v>44</v>
       </c>
@@ -9401,14 +9407,14 @@
       <c r="N233" s="8">
         <v>-70.030882109999993</v>
       </c>
-      <c r="Q233">
-        <v>2023</v>
-      </c>
-      <c r="R233" s="9" t="s">
+      <c r="R233">
+        <v>2023</v>
+      </c>
+      <c r="S233" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A234" s="8" t="s">
         <v>45</v>
       </c>
@@ -9433,14 +9439,14 @@
       <c r="N234" s="8">
         <v>-7.7801508479999999</v>
       </c>
-      <c r="Q234">
-        <v>2023</v>
-      </c>
-      <c r="R234" s="9" t="s">
+      <c r="R234">
+        <v>2023</v>
+      </c>
+      <c r="S234" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A235" s="8" t="s">
         <v>55</v>
       </c>
@@ -9465,14 +9471,14 @@
       <c r="N235" s="8">
         <v>-4.767364529</v>
       </c>
-      <c r="Q235">
-        <v>2023</v>
-      </c>
-      <c r="R235" s="9" t="s">
+      <c r="R235">
+        <v>2023</v>
+      </c>
+      <c r="S235" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A236" s="8" t="s">
         <v>58</v>
       </c>
@@ -9497,14 +9503,14 @@
       <c r="N236" s="8">
         <v>-0.116126573</v>
       </c>
-      <c r="Q236">
-        <v>2023</v>
-      </c>
-      <c r="R236" s="9" t="s">
+      <c r="R236">
+        <v>2023</v>
+      </c>
+      <c r="S236" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A237" s="8" t="s">
         <v>65</v>
       </c>
@@ -9529,14 +9535,14 @@
       <c r="N237" s="8">
         <v>10.394761519999999</v>
       </c>
-      <c r="Q237">
-        <v>2023</v>
-      </c>
-      <c r="R237" s="9" t="s">
+      <c r="R237">
+        <v>2023</v>
+      </c>
+      <c r="S237" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A238" s="8" t="s">
         <v>68</v>
       </c>
@@ -9561,14 +9567,14 @@
       <c r="N238" s="8">
         <v>-21.18165286</v>
       </c>
-      <c r="Q238">
-        <v>2023</v>
-      </c>
-      <c r="R238" s="9" t="s">
+      <c r="R238">
+        <v>2023</v>
+      </c>
+      <c r="S238" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A239" s="8" t="s">
         <v>73</v>
       </c>
@@ -9593,14 +9599,14 @@
       <c r="N239" s="8">
         <v>-16.588032550000001</v>
       </c>
-      <c r="Q239">
-        <v>2023</v>
-      </c>
-      <c r="R239" s="9" t="s">
+      <c r="R239">
+        <v>2023</v>
+      </c>
+      <c r="S239" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A240" s="8" t="s">
         <v>75</v>
       </c>
@@ -9625,14 +9631,14 @@
       <c r="N240" s="8">
         <v>1.4560203</v>
       </c>
-      <c r="Q240">
-        <v>2023</v>
-      </c>
-      <c r="R240" s="9" t="s">
+      <c r="R240">
+        <v>2023</v>
+      </c>
+      <c r="S240" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A241" s="8" t="s">
         <v>78</v>
       </c>
@@ -9657,14 +9663,14 @@
       <c r="N241" s="8">
         <v>9.0370881339999993</v>
       </c>
-      <c r="Q241">
-        <v>2023</v>
-      </c>
-      <c r="R241" s="9" t="s">
+      <c r="R241">
+        <v>2023</v>
+      </c>
+      <c r="S241" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A242" s="8" t="s">
         <v>82</v>
       </c>
@@ -9689,14 +9695,14 @@
       <c r="N242" s="8">
         <v>-5.6360000000000001</v>
       </c>
-      <c r="Q242">
-        <v>2023</v>
-      </c>
-      <c r="R242" s="9" t="s">
+      <c r="R242">
+        <v>2023</v>
+      </c>
+      <c r="S242" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A243" s="8" t="s">
         <v>86</v>
       </c>
@@ -9721,14 +9727,14 @@
       <c r="N243" s="8">
         <v>0.70172940100000003</v>
       </c>
-      <c r="Q243">
-        <v>2023</v>
-      </c>
-      <c r="R243" s="9" t="s">
+      <c r="R243">
+        <v>2023</v>
+      </c>
+      <c r="S243" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A244" s="8" t="s">
         <v>109</v>
       </c>
@@ -9753,14 +9759,14 @@
       <c r="N244" s="8">
         <v>-6.0715642120000002</v>
       </c>
-      <c r="Q244">
-        <v>2023</v>
-      </c>
-      <c r="R244" s="9" t="s">
+      <c r="R244">
+        <v>2023</v>
+      </c>
+      <c r="S244" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A245" s="8" t="s">
         <v>112</v>
       </c>
@@ -9785,14 +9791,14 @@
       <c r="N245" s="8">
         <v>5.3093804249999996</v>
       </c>
-      <c r="Q245">
-        <v>2023</v>
-      </c>
-      <c r="R245" s="9" t="s">
+      <c r="R245">
+        <v>2023</v>
+      </c>
+      <c r="S245" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A246" s="8" t="s">
         <v>73</v>
       </c>
@@ -9817,14 +9823,14 @@
       <c r="N246" s="8">
         <v>-15.6907</v>
       </c>
-      <c r="Q246">
-        <v>2023</v>
-      </c>
-      <c r="R246" s="9" t="s">
+      <c r="R246">
+        <v>2023</v>
+      </c>
+      <c r="S246" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A247" s="8" t="s">
         <v>113</v>
       </c>
@@ -9849,14 +9855,14 @@
       <c r="N247" s="8">
         <v>10.08117315</v>
       </c>
-      <c r="Q247">
-        <v>2023</v>
-      </c>
-      <c r="R247" s="9" t="s">
+      <c r="R247">
+        <v>2023</v>
+      </c>
+      <c r="S247" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A248" s="8" t="s">
         <v>114</v>
       </c>
@@ -9881,14 +9887,14 @@
       <c r="N248" s="8">
         <v>-15.465618409999999</v>
       </c>
-      <c r="Q248">
-        <v>2023</v>
-      </c>
-      <c r="R248" s="9" t="s">
+      <c r="R248">
+        <v>2023</v>
+      </c>
+      <c r="S248" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A249" s="8" t="s">
         <v>115</v>
       </c>
@@ -9913,14 +9919,14 @@
       <c r="N249" s="8">
         <v>-19.29645588</v>
       </c>
-      <c r="Q249">
-        <v>2023</v>
-      </c>
-      <c r="R249" s="9" t="s">
+      <c r="R249">
+        <v>2023</v>
+      </c>
+      <c r="S249" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A250" s="8" t="s">
         <v>93</v>
       </c>
@@ -9945,14 +9951,14 @@
       <c r="N250" s="8">
         <v>-7.348657438</v>
       </c>
-      <c r="Q250">
-        <v>2023</v>
-      </c>
-      <c r="R250" s="9" t="s">
+      <c r="R250">
+        <v>2023</v>
+      </c>
+      <c r="S250" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A251" s="8" t="s">
         <v>116</v>
       </c>
@@ -9977,14 +9983,14 @@
       <c r="N251" s="8">
         <v>-15.090108519999999</v>
       </c>
-      <c r="Q251">
-        <v>2023</v>
-      </c>
-      <c r="R251" s="9" t="s">
+      <c r="R251">
+        <v>2023</v>
+      </c>
+      <c r="S251" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A252" s="8" t="s">
         <v>119</v>
       </c>
@@ -10009,14 +10015,14 @@
       <c r="N252" s="8">
         <v>3.8841999999999999</v>
       </c>
-      <c r="Q252">
-        <v>2023</v>
-      </c>
-      <c r="R252" s="9" t="s">
+      <c r="R252">
+        <v>2023</v>
+      </c>
+      <c r="S252" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A253" s="8" t="s">
         <v>120</v>
       </c>
@@ -10041,14 +10047,14 @@
       <c r="N253" s="8">
         <v>-74.970731319999999</v>
       </c>
-      <c r="Q253">
-        <v>2023</v>
-      </c>
-      <c r="R253" s="9" t="s">
+      <c r="R253">
+        <v>2023</v>
+      </c>
+      <c r="S253" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A254" s="8" t="s">
         <v>121</v>
       </c>
@@ -10073,14 +10079,14 @@
       <c r="N254" s="8">
         <v>-74.448542410000002</v>
       </c>
-      <c r="Q254">
-        <v>2023</v>
-      </c>
-      <c r="R254" s="9" t="s">
+      <c r="R254">
+        <v>2023</v>
+      </c>
+      <c r="S254" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A255" s="8" t="s">
         <v>122</v>
       </c>
@@ -10105,14 +10111,14 @@
       <c r="N255" s="8">
         <v>0.58801080999999999</v>
       </c>
-      <c r="Q255">
-        <v>2023</v>
-      </c>
-      <c r="R255" s="9" t="s">
+      <c r="R255">
+        <v>2023</v>
+      </c>
+      <c r="S255" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A256" s="8" t="s">
         <v>123</v>
       </c>
@@ -10137,14 +10143,14 @@
       <c r="N256" s="8">
         <v>21.024382500000002</v>
       </c>
-      <c r="Q256">
-        <v>2023</v>
-      </c>
-      <c r="R256" s="9" t="s">
+      <c r="R256">
+        <v>2023</v>
+      </c>
+      <c r="S256" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A257" s="8" t="s">
         <v>124</v>
       </c>
@@ -10169,14 +10175,14 @@
       <c r="N257" s="8">
         <v>-63.580599999999997</v>
       </c>
-      <c r="Q257">
-        <v>2023</v>
-      </c>
-      <c r="R257" s="9" t="s">
+      <c r="R257">
+        <v>2023</v>
+      </c>
+      <c r="S257" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A258" s="8" t="s">
         <v>126</v>
       </c>
@@ -10201,14 +10207,14 @@
       <c r="N258" s="8">
         <v>30.328218010000001</v>
       </c>
-      <c r="Q258">
-        <v>2023</v>
-      </c>
-      <c r="R258" s="9" t="s">
+      <c r="R258">
+        <v>2023</v>
+      </c>
+      <c r="S258" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A259" s="8" t="s">
         <v>127</v>
       </c>
@@ -10233,14 +10239,14 @@
       <c r="N259" s="8">
         <v>-15.834899999999999</v>
       </c>
-      <c r="Q259">
-        <v>2023</v>
-      </c>
-      <c r="R259" s="9" t="s">
+      <c r="R259">
+        <v>2023</v>
+      </c>
+      <c r="S259" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A260" s="8" t="s">
         <v>56</v>
       </c>
@@ -10265,14 +10271,14 @@
       <c r="N260" s="8">
         <v>-12.138888379999999</v>
       </c>
-      <c r="Q260">
-        <v>2023</v>
-      </c>
-      <c r="R260" s="9" t="s">
+      <c r="R260">
+        <v>2023</v>
+      </c>
+      <c r="S260" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A261" s="8" t="s">
         <v>129</v>
       </c>
@@ -10297,14 +10303,14 @@
       <c r="N261" s="8">
         <v>-9.3709683950000002</v>
       </c>
-      <c r="Q261">
-        <v>2023</v>
-      </c>
-      <c r="R261" s="9" t="s">
+      <c r="R261">
+        <v>2023</v>
+      </c>
+      <c r="S261" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A262" s="8" t="s">
         <v>130</v>
       </c>
@@ -10329,14 +10335,14 @@
       <c r="N262" s="8">
         <v>3.2691729000000003E-2</v>
       </c>
-      <c r="Q262">
-        <v>2023</v>
-      </c>
-      <c r="R262" s="9" t="s">
+      <c r="R262">
+        <v>2023</v>
+      </c>
+      <c r="S262" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A263" s="8" t="s">
         <v>131</v>
       </c>
@@ -10361,14 +10367,14 @@
       <c r="N263" s="8">
         <v>-18.32158566</v>
       </c>
-      <c r="Q263">
-        <v>2023</v>
-      </c>
-      <c r="R263" s="9" t="s">
+      <c r="R263">
+        <v>2023</v>
+      </c>
+      <c r="S263" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A264" s="8" t="s">
         <v>132</v>
       </c>
@@ -10393,14 +10399,14 @@
       <c r="N264" s="8">
         <v>4.4748239679999999</v>
       </c>
-      <c r="Q264">
-        <v>2023</v>
-      </c>
-      <c r="R264" s="9" t="s">
+      <c r="R264">
+        <v>2023</v>
+      </c>
+      <c r="S264" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A265" s="8" t="s">
         <v>133</v>
       </c>
@@ -10425,14 +10431,14 @@
       <c r="N265" s="8">
         <v>-4.6374920800000003</v>
       </c>
-      <c r="Q265">
-        <v>2023</v>
-      </c>
-      <c r="R265" s="9" t="s">
+      <c r="R265">
+        <v>2023</v>
+      </c>
+      <c r="S265" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A266" s="8" t="s">
         <v>134</v>
       </c>
@@ -10457,14 +10463,14 @@
       <c r="N266" s="8">
         <v>-8.3908637059999993</v>
       </c>
-      <c r="Q266">
-        <v>2023</v>
-      </c>
-      <c r="R266" s="9" t="s">
+      <c r="R266">
+        <v>2023</v>
+      </c>
+      <c r="S266" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A267" s="8" t="s">
         <v>135</v>
       </c>
@@ -10489,14 +10495,14 @@
       <c r="N267" s="8">
         <v>-7.670817671</v>
       </c>
-      <c r="Q267">
-        <v>2023</v>
-      </c>
-      <c r="R267" s="9" t="s">
+      <c r="R267">
+        <v>2023</v>
+      </c>
+      <c r="S267" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A268" s="8" t="s">
         <v>136</v>
       </c>
@@ -10521,14 +10527,14 @@
       <c r="N268" s="8">
         <v>-5.5881924559999998</v>
       </c>
-      <c r="Q268">
-        <v>2023</v>
-      </c>
-      <c r="R268" s="9" t="s">
+      <c r="R268">
+        <v>2023</v>
+      </c>
+      <c r="S268" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A269" s="8" t="s">
         <v>137</v>
       </c>
@@ -10553,14 +10559,14 @@
       <c r="N269" s="8">
         <v>-6.7599999999999993E-2</v>
       </c>
-      <c r="Q269">
-        <v>2023</v>
-      </c>
-      <c r="R269" s="9" t="s">
+      <c r="R269">
+        <v>2023</v>
+      </c>
+      <c r="S269" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A270" s="8" t="s">
         <v>138</v>
       </c>
@@ -10585,14 +10591,14 @@
       <c r="N270" s="8">
         <v>-22.28829159</v>
       </c>
-      <c r="Q270">
-        <v>2023</v>
-      </c>
-      <c r="R270" s="9" t="s">
+      <c r="R270">
+        <v>2023</v>
+      </c>
+      <c r="S270" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A271" s="8" t="s">
         <v>140</v>
       </c>
@@ -10617,14 +10623,14 @@
       <c r="N271" s="8">
         <v>-7.4318985949999998</v>
       </c>
-      <c r="Q271">
-        <v>2023</v>
-      </c>
-      <c r="R271" s="9" t="s">
+      <c r="R271">
+        <v>2023</v>
+      </c>
+      <c r="S271" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A272" s="8" t="s">
         <v>93</v>
       </c>
@@ -10649,14 +10655,14 @@
       <c r="N272" s="8">
         <v>-2.60180517</v>
       </c>
-      <c r="Q272">
-        <v>2023</v>
-      </c>
-      <c r="R272" s="9" t="s">
+      <c r="R272">
+        <v>2023</v>
+      </c>
+      <c r="S272" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A273" s="8" t="s">
         <v>151</v>
       </c>
@@ -10681,14 +10687,14 @@
       <c r="N273" s="8">
         <v>16.438399390000001</v>
       </c>
-      <c r="Q273">
-        <v>2023</v>
-      </c>
-      <c r="R273" s="9" t="s">
+      <c r="R273">
+        <v>2023</v>
+      </c>
+      <c r="S273" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A274" s="8" t="s">
         <v>81</v>
       </c>
@@ -10713,14 +10719,14 @@
       <c r="N274" s="8">
         <v>8.9524902050000001</v>
       </c>
-      <c r="Q274">
-        <v>2023</v>
-      </c>
-      <c r="R274" s="9" t="s">
+      <c r="R274">
+        <v>2023</v>
+      </c>
+      <c r="S274" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A275" s="8" t="s">
         <v>153</v>
       </c>
@@ -10745,14 +10751,14 @@
       <c r="N275" s="8">
         <v>-10.989294429999999</v>
       </c>
-      <c r="Q275">
-        <v>2023</v>
-      </c>
-      <c r="R275" s="9" t="s">
+      <c r="R275">
+        <v>2023</v>
+      </c>
+      <c r="S275" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A276" s="8" t="s">
         <v>154</v>
       </c>
@@ -10777,14 +10783,14 @@
       <c r="N276" s="8">
         <v>-6.5224067999999997</v>
       </c>
-      <c r="Q276">
-        <v>2023</v>
-      </c>
-      <c r="R276" s="9" t="s">
+      <c r="R276">
+        <v>2023</v>
+      </c>
+      <c r="S276" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A277" s="8" t="s">
         <v>155</v>
       </c>
@@ -10809,14 +10815,14 @@
       <c r="N277" s="8">
         <v>-18.690219190000001</v>
       </c>
-      <c r="Q277">
-        <v>2023</v>
-      </c>
-      <c r="R277" s="9" t="s">
+      <c r="R277">
+        <v>2023</v>
+      </c>
+      <c r="S277" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A278" s="8" t="s">
         <v>156</v>
       </c>
@@ -10841,14 +10847,14 @@
       <c r="N278" s="8">
         <v>-3.1050084739999999</v>
       </c>
-      <c r="Q278">
-        <v>2023</v>
-      </c>
-      <c r="R278" s="9" t="s">
+      <c r="R278">
+        <v>2023</v>
+      </c>
+      <c r="S278" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A279" s="8" t="s">
         <v>157</v>
       </c>
@@ -10873,14 +10879,14 @@
       <c r="N279" s="8">
         <v>3.3147619100000001</v>
       </c>
-      <c r="Q279">
-        <v>2023</v>
-      </c>
-      <c r="R279" s="9" t="s">
+      <c r="R279">
+        <v>2023</v>
+      </c>
+      <c r="S279" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A280" s="8" t="s">
         <v>159</v>
       </c>
@@ -10905,14 +10911,14 @@
       <c r="N280" s="8">
         <v>2.9030669549999999</v>
       </c>
-      <c r="Q280">
-        <v>2023</v>
-      </c>
-      <c r="R280" s="9" t="s">
+      <c r="R280">
+        <v>2023</v>
+      </c>
+      <c r="S280" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A281" s="8" t="s">
         <v>160</v>
       </c>
@@ -10937,14 +10943,14 @@
       <c r="N281" s="8">
         <v>1.6093999999999999</v>
       </c>
-      <c r="Q281">
-        <v>2023</v>
-      </c>
-      <c r="R281" s="9" t="s">
+      <c r="R281">
+        <v>2023</v>
+      </c>
+      <c r="S281" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A282" s="8" t="s">
         <v>161</v>
       </c>
@@ -10969,14 +10975,14 @@
       <c r="N282" s="8">
         <v>5.1888527760000001</v>
       </c>
-      <c r="Q282">
-        <v>2023</v>
-      </c>
-      <c r="R282" s="9" t="s">
+      <c r="R282">
+        <v>2023</v>
+      </c>
+      <c r="S282" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A283" s="8" t="s">
         <v>162</v>
       </c>
@@ -11001,14 +11007,14 @@
       <c r="N283" s="8">
         <v>37.541239230000002</v>
       </c>
-      <c r="Q283">
-        <v>2023</v>
-      </c>
-      <c r="R283" s="9" t="s">
+      <c r="R283">
+        <v>2023</v>
+      </c>
+      <c r="S283" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A284" s="8" t="s">
         <v>163</v>
       </c>
@@ -11033,14 +11039,14 @@
       <c r="N284" s="8">
         <v>-11.042125459999999</v>
       </c>
-      <c r="Q284">
-        <v>2023</v>
-      </c>
-      <c r="R284" s="9" t="s">
+      <c r="R284">
+        <v>2023</v>
+      </c>
+      <c r="S284" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A285" s="8" t="s">
         <v>164</v>
       </c>
@@ -11065,14 +11071,14 @@
       <c r="N285" s="8">
         <v>-14.879982119999999</v>
       </c>
-      <c r="Q285">
-        <v>2023</v>
-      </c>
-      <c r="R285" s="9" t="s">
+      <c r="R285">
+        <v>2023</v>
+      </c>
+      <c r="S285" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A286" s="8" t="s">
         <v>166</v>
       </c>
@@ -11097,14 +11103,14 @@
       <c r="N286" s="8">
         <v>-17.759923144855701</v>
       </c>
-      <c r="Q286">
-        <v>2023</v>
-      </c>
-      <c r="R286" s="9" t="s">
+      <c r="R286">
+        <v>2023</v>
+      </c>
+      <c r="S286" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A287" s="8" t="s">
         <v>167</v>
       </c>
@@ -11129,14 +11135,14 @@
       <c r="N287" s="8">
         <v>-13.6808791729344</v>
       </c>
-      <c r="Q287">
-        <v>2023</v>
-      </c>
-      <c r="R287" s="9" t="s">
+      <c r="R287">
+        <v>2023</v>
+      </c>
+      <c r="S287" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A288" s="8" t="s">
         <v>168</v>
       </c>
@@ -11161,14 +11167,14 @@
       <c r="N288" s="8">
         <v>-3.0534260016011401</v>
       </c>
-      <c r="Q288">
-        <v>2023</v>
-      </c>
-      <c r="R288" s="9" t="s">
+      <c r="R288">
+        <v>2023</v>
+      </c>
+      <c r="S288" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A289" s="8" t="s">
         <v>169</v>
       </c>
@@ -11193,14 +11199,14 @@
       <c r="N289" s="8">
         <v>-10.327480100416601</v>
       </c>
-      <c r="Q289">
-        <v>2023</v>
-      </c>
-      <c r="R289" s="9" t="s">
+      <c r="R289">
+        <v>2023</v>
+      </c>
+      <c r="S289" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A290" s="8" t="s">
         <v>170</v>
       </c>
@@ -11225,14 +11231,14 @@
       <c r="N290" s="8">
         <v>-8.1524564450827501</v>
       </c>
-      <c r="Q290">
-        <v>2023</v>
-      </c>
-      <c r="R290" s="9" t="s">
+      <c r="R290">
+        <v>2023</v>
+      </c>
+      <c r="S290" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="291" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A291" s="8" t="s">
         <v>171</v>
       </c>
@@ -11257,14 +11263,14 @@
       <c r="N291" s="8">
         <v>-5.2106173795525903</v>
       </c>
-      <c r="Q291">
-        <v>2023</v>
-      </c>
-      <c r="R291" s="9" t="s">
+      <c r="R291">
+        <v>2023</v>
+      </c>
+      <c r="S291" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A292" s="8" t="s">
         <v>28</v>
       </c>
@@ -11289,14 +11295,14 @@
       <c r="N292" s="8">
         <v>4.5408471710000002</v>
       </c>
-      <c r="Q292">
-        <v>2023</v>
-      </c>
-      <c r="R292" s="9" t="s">
+      <c r="R292">
+        <v>2023</v>
+      </c>
+      <c r="S292" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A293" s="8" t="s">
         <v>29</v>
       </c>
@@ -11321,14 +11327,14 @@
       <c r="N293" s="8">
         <v>-1.9826566290000001</v>
       </c>
-      <c r="Q293">
-        <v>2023</v>
-      </c>
-      <c r="R293" s="9" t="s">
+      <c r="R293">
+        <v>2023</v>
+      </c>
+      <c r="S293" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A294" s="8" t="s">
         <v>31</v>
       </c>
@@ -11353,14 +11359,14 @@
       <c r="N294" s="8">
         <v>-14.40586034</v>
       </c>
-      <c r="Q294">
-        <v>2023</v>
-      </c>
-      <c r="R294" s="9" t="s">
+      <c r="R294">
+        <v>2023</v>
+      </c>
+      <c r="S294" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A295" s="8" t="s">
         <v>32</v>
       </c>
@@ -11385,14 +11391,14 @@
       <c r="N295" s="8">
         <v>-6.2884282310000001</v>
       </c>
-      <c r="Q295">
-        <v>2023</v>
-      </c>
-      <c r="R295" s="9" t="s">
+      <c r="R295">
+        <v>2023</v>
+      </c>
+      <c r="S295" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A296" s="8" t="s">
         <v>34</v>
       </c>
@@ -11417,14 +11423,14 @@
       <c r="N296" s="8">
         <v>-12.848416869999999</v>
       </c>
-      <c r="Q296">
-        <v>2023</v>
-      </c>
-      <c r="R296" s="9" t="s">
+      <c r="R296">
+        <v>2023</v>
+      </c>
+      <c r="S296" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A297" s="8" t="s">
         <v>37</v>
       </c>
@@ -11449,14 +11455,14 @@
       <c r="N297" s="8">
         <v>-19.18464135</v>
       </c>
-      <c r="Q297">
-        <v>2023</v>
-      </c>
-      <c r="R297" s="9" t="s">
+      <c r="R297">
+        <v>2023</v>
+      </c>
+      <c r="S297" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A298" s="8" t="s">
         <v>38</v>
       </c>
@@ -11481,14 +11487,14 @@
       <c r="N298" s="8">
         <v>-12.853954209999999</v>
       </c>
-      <c r="Q298">
-        <v>2023</v>
-      </c>
-      <c r="R298" s="9" t="s">
+      <c r="R298">
+        <v>2023</v>
+      </c>
+      <c r="S298" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A299" s="8" t="s">
         <v>39</v>
       </c>
@@ -11513,14 +11519,14 @@
       <c r="N299" s="8">
         <v>-26.138360469999999</v>
       </c>
-      <c r="Q299">
-        <v>2023</v>
-      </c>
-      <c r="R299" s="9" t="s">
+      <c r="R299">
+        <v>2023</v>
+      </c>
+      <c r="S299" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A300" s="8" t="s">
         <v>40</v>
       </c>
@@ -11545,14 +11551,14 @@
       <c r="N300" s="8">
         <v>-7.3519369790000004</v>
       </c>
-      <c r="Q300">
-        <v>2023</v>
-      </c>
-      <c r="R300" s="9" t="s">
+      <c r="R300">
+        <v>2023</v>
+      </c>
+      <c r="S300" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A301" s="8" t="s">
         <v>41</v>
       </c>
@@ -11577,14 +11583,14 @@
       <c r="N301" s="8">
         <v>-88.768841859999995</v>
       </c>
-      <c r="Q301">
-        <v>2023</v>
-      </c>
-      <c r="R301" s="9" t="s">
+      <c r="R301">
+        <v>2023</v>
+      </c>
+      <c r="S301" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A302" s="8" t="s">
         <v>42</v>
       </c>
@@ -11609,14 +11615,14 @@
       <c r="N302" s="8">
         <v>-87.923634969999995</v>
       </c>
-      <c r="Q302">
-        <v>2023</v>
-      </c>
-      <c r="R302" s="9" t="s">
+      <c r="R302">
+        <v>2023</v>
+      </c>
+      <c r="S302" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A303" s="8" t="s">
         <v>43</v>
       </c>
@@ -11641,14 +11647,14 @@
       <c r="N303" s="8">
         <v>-85.233166769999997</v>
       </c>
-      <c r="Q303">
-        <v>2023</v>
-      </c>
-      <c r="R303" s="9" t="s">
+      <c r="R303">
+        <v>2023</v>
+      </c>
+      <c r="S303" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A304" s="8" t="s">
         <v>44</v>
       </c>
@@ -11673,14 +11679,14 @@
       <c r="N304" s="8">
         <v>-70.970961810000006</v>
       </c>
-      <c r="Q304">
-        <v>2023</v>
-      </c>
-      <c r="R304" s="9" t="s">
+      <c r="R304">
+        <v>2023</v>
+      </c>
+      <c r="S304" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A305" s="8" t="s">
         <v>45</v>
       </c>
@@ -11705,14 +11711,14 @@
       <c r="N305" s="8">
         <v>-9.6839521820000005</v>
       </c>
-      <c r="Q305">
-        <v>2023</v>
-      </c>
-      <c r="R305" s="9" t="s">
+      <c r="R305">
+        <v>2023</v>
+      </c>
+      <c r="S305" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A306" s="8" t="s">
         <v>55</v>
       </c>
@@ -11737,14 +11743,14 @@
       <c r="N306" s="8">
         <v>-2.9244215609999999</v>
       </c>
-      <c r="Q306">
-        <v>2023</v>
-      </c>
-      <c r="R306" s="9" t="s">
+      <c r="R306">
+        <v>2023</v>
+      </c>
+      <c r="S306" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A307" s="8" t="s">
         <v>58</v>
       </c>
@@ -11769,14 +11775,14 @@
       <c r="N307" s="8">
         <v>-15.439781180000001</v>
       </c>
-      <c r="Q307">
-        <v>2023</v>
-      </c>
-      <c r="R307" s="9" t="s">
+      <c r="R307">
+        <v>2023</v>
+      </c>
+      <c r="S307" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A308" s="8" t="s">
         <v>68</v>
       </c>
@@ -11801,14 +11807,14 @@
       <c r="N308" s="8">
         <v>-22.763439949999999</v>
       </c>
-      <c r="Q308">
-        <v>2023</v>
-      </c>
-      <c r="R308" s="9" t="s">
+      <c r="R308">
+        <v>2023</v>
+      </c>
+      <c r="S308" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A309" s="8" t="s">
         <v>73</v>
       </c>
@@ -11833,14 +11839,14 @@
       <c r="N309" s="8">
         <v>-16.950738810000001</v>
       </c>
-      <c r="Q309">
-        <v>2023</v>
-      </c>
-      <c r="R309" s="9" t="s">
+      <c r="R309">
+        <v>2023</v>
+      </c>
+      <c r="S309" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="310" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A310" s="8" t="s">
         <v>75</v>
       </c>
@@ -11865,14 +11871,14 @@
       <c r="N310" s="8">
         <v>-7.9313854570000002</v>
       </c>
-      <c r="Q310">
-        <v>2023</v>
-      </c>
-      <c r="R310" s="9" t="s">
+      <c r="R310">
+        <v>2023</v>
+      </c>
+      <c r="S310" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A311" s="8" t="s">
         <v>78</v>
       </c>
@@ -11897,14 +11903,14 @@
       <c r="N311" s="8">
         <v>3.894224371</v>
       </c>
-      <c r="Q311">
-        <v>2023</v>
-      </c>
-      <c r="R311" s="9" t="s">
+      <c r="R311">
+        <v>2023</v>
+      </c>
+      <c r="S311" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A312" s="8" t="s">
         <v>82</v>
       </c>
@@ -11929,14 +11935,14 @@
       <c r="N312" s="8">
         <v>-2.77</v>
       </c>
-      <c r="Q312">
-        <v>2023</v>
-      </c>
-      <c r="R312" s="9" t="s">
+      <c r="R312">
+        <v>2023</v>
+      </c>
+      <c r="S312" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="313" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A313" s="8" t="s">
         <v>86</v>
       </c>
@@ -11961,14 +11967,14 @@
       <c r="N313" s="8">
         <v>-1.308581357</v>
       </c>
-      <c r="Q313">
-        <v>2023</v>
-      </c>
-      <c r="R313" s="9" t="s">
+      <c r="R313">
+        <v>2023</v>
+      </c>
+      <c r="S313" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A314" s="8" t="s">
         <v>109</v>
       </c>
@@ -11993,14 +11999,14 @@
       <c r="N314" s="8">
         <v>5.3813946699999997</v>
       </c>
-      <c r="Q314">
-        <v>2023</v>
-      </c>
-      <c r="R314" s="9" t="s">
+      <c r="R314">
+        <v>2023</v>
+      </c>
+      <c r="S314" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="315" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A315" s="8" t="s">
         <v>73</v>
       </c>
@@ -12025,14 +12031,14 @@
       <c r="N315" s="8">
         <v>-13.640874589999999</v>
       </c>
-      <c r="Q315">
-        <v>2023</v>
-      </c>
-      <c r="R315" s="9" t="s">
+      <c r="R315">
+        <v>2023</v>
+      </c>
+      <c r="S315" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A316" s="8" t="s">
         <v>113</v>
       </c>
@@ -12057,14 +12063,14 @@
       <c r="N316" s="8">
         <v>10.662820050000001</v>
       </c>
-      <c r="Q316">
-        <v>2023</v>
-      </c>
-      <c r="R316" s="9" t="s">
+      <c r="R316">
+        <v>2023</v>
+      </c>
+      <c r="S316" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A317" s="8" t="s">
         <v>114</v>
       </c>
@@ -12089,14 +12095,14 @@
       <c r="N317" s="8">
         <v>-11.62848801</v>
       </c>
-      <c r="Q317">
-        <v>2023</v>
-      </c>
-      <c r="R317" s="9" t="s">
+      <c r="R317">
+        <v>2023</v>
+      </c>
+      <c r="S317" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A318" s="8" t="s">
         <v>115</v>
       </c>
@@ -12121,14 +12127,14 @@
       <c r="N318" s="8">
         <v>-22.183228190000001</v>
       </c>
-      <c r="Q318">
-        <v>2023</v>
-      </c>
-      <c r="R318" s="9" t="s">
+      <c r="R318">
+        <v>2023</v>
+      </c>
+      <c r="S318" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A319" s="8" t="s">
         <v>119</v>
       </c>
@@ -12153,14 +12159,14 @@
       <c r="N319" s="8">
         <v>4.6463000000000001</v>
       </c>
-      <c r="Q319">
-        <v>2023</v>
-      </c>
-      <c r="R319" s="9" t="s">
+      <c r="R319">
+        <v>2023</v>
+      </c>
+      <c r="S319" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A320" s="8" t="s">
         <v>120</v>
       </c>
@@ -12185,14 +12191,14 @@
       <c r="N320" s="8">
         <v>-75.040971150000004</v>
       </c>
-      <c r="Q320">
-        <v>2023</v>
-      </c>
-      <c r="R320" s="9" t="s">
+      <c r="R320">
+        <v>2023</v>
+      </c>
+      <c r="S320" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="321" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A321" s="8" t="s">
         <v>122</v>
       </c>
@@ -12217,14 +12223,14 @@
       <c r="N321" s="8">
         <v>0.148490862</v>
       </c>
-      <c r="Q321">
-        <v>2023</v>
-      </c>
-      <c r="R321" s="9" t="s">
+      <c r="R321">
+        <v>2023</v>
+      </c>
+      <c r="S321" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A322" s="8" t="s">
         <v>123</v>
       </c>
@@ -12249,14 +12255,14 @@
       <c r="N322" s="8">
         <v>16.43571287</v>
       </c>
-      <c r="Q322">
-        <v>2023</v>
-      </c>
-      <c r="R322" s="9" t="s">
+      <c r="R322">
+        <v>2023</v>
+      </c>
+      <c r="S322" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A323" s="8" t="s">
         <v>124</v>
       </c>
@@ -12281,14 +12287,14 @@
       <c r="N323" s="8">
         <v>-64.837400000000002</v>
       </c>
-      <c r="Q323">
-        <v>2023</v>
-      </c>
-      <c r="R323" s="9" t="s">
+      <c r="R323">
+        <v>2023</v>
+      </c>
+      <c r="S323" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A324" s="8" t="s">
         <v>125</v>
       </c>
@@ -12313,14 +12319,14 @@
       <c r="N324" s="8">
         <v>7.9124848669999999</v>
       </c>
-      <c r="Q324">
-        <v>2023</v>
-      </c>
-      <c r="R324" s="9" t="s">
+      <c r="R324">
+        <v>2023</v>
+      </c>
+      <c r="S324" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A325" s="8" t="s">
         <v>126</v>
       </c>
@@ -12345,14 +12351,14 @@
       <c r="N325" s="8">
         <v>28.56173798</v>
       </c>
-      <c r="Q325">
-        <v>2023</v>
-      </c>
-      <c r="R325" s="9" t="s">
+      <c r="R325">
+        <v>2023</v>
+      </c>
+      <c r="S325" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="326" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A326" s="8" t="s">
         <v>127</v>
       </c>
@@ -12377,14 +12383,14 @@
       <c r="N326" s="8">
         <v>-5.9727065990000003</v>
       </c>
-      <c r="Q326">
-        <v>2023</v>
-      </c>
-      <c r="R326" s="9" t="s">
+      <c r="R326">
+        <v>2023</v>
+      </c>
+      <c r="S326" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A327" s="8" t="s">
         <v>131</v>
       </c>
@@ -12409,14 +12415,14 @@
       <c r="N327" s="8">
         <v>-18.443981239999999</v>
       </c>
-      <c r="Q327">
-        <v>2023</v>
-      </c>
-      <c r="R327" s="9" t="s">
+      <c r="R327">
+        <v>2023</v>
+      </c>
+      <c r="S327" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A328" s="8" t="s">
         <v>133</v>
       </c>
@@ -12441,14 +12447,14 @@
       <c r="N328" s="8">
         <v>-5.3540626260000002</v>
       </c>
-      <c r="Q328">
-        <v>2023</v>
-      </c>
-      <c r="R328" s="9" t="s">
+      <c r="R328">
+        <v>2023</v>
+      </c>
+      <c r="S328" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A329" s="8" t="s">
         <v>134</v>
       </c>
@@ -12473,14 +12479,14 @@
       <c r="N329" s="8">
         <v>-1.6155993479999999</v>
       </c>
-      <c r="Q329">
-        <v>2023</v>
-      </c>
-      <c r="R329" s="9" t="s">
+      <c r="R329">
+        <v>2023</v>
+      </c>
+      <c r="S329" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A330" s="8" t="s">
         <v>135</v>
       </c>
@@ -12505,14 +12511,14 @@
       <c r="N330" s="8">
         <v>-10.69866635</v>
       </c>
-      <c r="Q330">
-        <v>2023</v>
-      </c>
-      <c r="R330" s="9" t="s">
+      <c r="R330">
+        <v>2023</v>
+      </c>
+      <c r="S330" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A331" s="8" t="s">
         <v>137</v>
       </c>
@@ -12537,14 +12543,14 @@
       <c r="N331" s="8">
         <v>-9.2380000000000004E-2</v>
       </c>
-      <c r="Q331">
-        <v>2023</v>
-      </c>
-      <c r="R331" s="9" t="s">
+      <c r="R331">
+        <v>2023</v>
+      </c>
+      <c r="S331" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A332" s="8" t="s">
         <v>138</v>
       </c>
@@ -12569,14 +12575,14 @@
       <c r="N332" s="8">
         <v>-16.092959950000001</v>
       </c>
-      <c r="Q332">
-        <v>2023</v>
-      </c>
-      <c r="R332" s="9" t="s">
+      <c r="R332">
+        <v>2023</v>
+      </c>
+      <c r="S332" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A333" s="8" t="s">
         <v>140</v>
       </c>
@@ -12601,14 +12607,14 @@
       <c r="N333" s="8">
         <v>-6.4689757559999999</v>
       </c>
-      <c r="Q333">
-        <v>2023</v>
-      </c>
-      <c r="R333" s="9" t="s">
+      <c r="R333">
+        <v>2023</v>
+      </c>
+      <c r="S333" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="334" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A334" s="8" t="s">
         <v>93</v>
       </c>
@@ -12633,14 +12639,14 @@
       <c r="N334" s="8">
         <v>-6.2706756520000004</v>
       </c>
-      <c r="Q334">
-        <v>2023</v>
-      </c>
-      <c r="R334" s="9" t="s">
+      <c r="R334">
+        <v>2023</v>
+      </c>
+      <c r="S334" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="335" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A335" s="8" t="s">
         <v>151</v>
       </c>
@@ -12665,14 +12671,14 @@
       <c r="N335" s="8">
         <v>7.8891161629999997</v>
       </c>
-      <c r="Q335">
-        <v>2023</v>
-      </c>
-      <c r="R335" s="9" t="s">
+      <c r="R335">
+        <v>2023</v>
+      </c>
+      <c r="S335" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="336" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A336" s="8" t="s">
         <v>81</v>
       </c>
@@ -12697,14 +12703,14 @@
       <c r="N336" s="8">
         <v>8.4819821209999997</v>
       </c>
-      <c r="Q336">
-        <v>2023</v>
-      </c>
-      <c r="R336" s="9" t="s">
+      <c r="R336">
+        <v>2023</v>
+      </c>
+      <c r="S336" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="337" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A337" s="8" t="s">
         <v>153</v>
       </c>
@@ -12729,14 +12735,14 @@
       <c r="N337" s="8">
         <v>-10.780966919999999</v>
       </c>
-      <c r="Q337">
-        <v>2023</v>
-      </c>
-      <c r="R337" s="9" t="s">
+      <c r="R337">
+        <v>2023</v>
+      </c>
+      <c r="S337" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="338" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A338" s="8" t="s">
         <v>154</v>
       </c>
@@ -12761,14 +12767,14 @@
       <c r="N338" s="8">
         <v>-7.9484596300000003</v>
       </c>
-      <c r="Q338">
-        <v>2023</v>
-      </c>
-      <c r="R338" s="9" t="s">
+      <c r="R338">
+        <v>2023</v>
+      </c>
+      <c r="S338" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="339" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A339" s="8" t="s">
         <v>155</v>
       </c>
@@ -12793,14 +12799,14 @@
       <c r="N339" s="8">
         <v>-11.592997</v>
       </c>
-      <c r="Q339">
-        <v>2023</v>
-      </c>
-      <c r="R339" s="9" t="s">
+      <c r="R339">
+        <v>2023</v>
+      </c>
+      <c r="S339" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="340" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A340" s="8" t="s">
         <v>156</v>
       </c>
@@ -12825,14 +12831,14 @@
       <c r="N340" s="8">
         <v>1.6192300230000001</v>
       </c>
-      <c r="Q340">
-        <v>2023</v>
-      </c>
-      <c r="R340" s="9" t="s">
+      <c r="R340">
+        <v>2023</v>
+      </c>
+      <c r="S340" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="341" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A341" s="8" t="s">
         <v>159</v>
       </c>
@@ -12857,14 +12863,14 @@
       <c r="N341" s="8">
         <v>20.73346192</v>
       </c>
-      <c r="Q341">
-        <v>2023</v>
-      </c>
-      <c r="R341" s="9" t="s">
+      <c r="R341">
+        <v>2023</v>
+      </c>
+      <c r="S341" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="342" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A342" s="8" t="s">
         <v>161</v>
       </c>
@@ -12889,14 +12895,14 @@
       <c r="N342" s="8">
         <v>14.592591609999999</v>
       </c>
-      <c r="Q342">
-        <v>2023</v>
-      </c>
-      <c r="R342" s="9" t="s">
+      <c r="R342">
+        <v>2023</v>
+      </c>
+      <c r="S342" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="343" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A343" s="8" t="s">
         <v>162</v>
       </c>
@@ -12921,14 +12927,14 @@
       <c r="N343" s="8">
         <v>49.125762039999998</v>
       </c>
-      <c r="Q343">
-        <v>2023</v>
-      </c>
-      <c r="R343" s="9" t="s">
+      <c r="R343">
+        <v>2023</v>
+      </c>
+      <c r="S343" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A344" s="8" t="s">
         <v>163</v>
       </c>
@@ -12953,14 +12959,14 @@
       <c r="N344" s="8">
         <v>-2.342048508</v>
       </c>
-      <c r="Q344">
-        <v>2023</v>
-      </c>
-      <c r="R344" s="9" t="s">
+      <c r="R344">
+        <v>2023</v>
+      </c>
+      <c r="S344" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="345" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A345" s="8" t="s">
         <v>164</v>
       </c>
@@ -12985,14 +12991,14 @@
       <c r="N345" s="8">
         <v>-14.228222329999999</v>
       </c>
-      <c r="Q345">
-        <v>2023</v>
-      </c>
-      <c r="R345" s="9" t="s">
+      <c r="R345">
+        <v>2023</v>
+      </c>
+      <c r="S345" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="346" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A346" s="8" t="s">
         <v>166</v>
       </c>
@@ -13017,14 +13023,14 @@
       <c r="N346" s="8">
         <v>-15.2025384449133</v>
       </c>
-      <c r="Q346">
-        <v>2023</v>
-      </c>
-      <c r="R346" s="9" t="s">
+      <c r="R346">
+        <v>2023</v>
+      </c>
+      <c r="S346" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A347" s="8" t="s">
         <v>167</v>
       </c>
@@ -13049,14 +13055,14 @@
       <c r="N347" s="8">
         <v>6.4831855110866101</v>
       </c>
-      <c r="Q347">
-        <v>2023</v>
-      </c>
-      <c r="R347" s="9" t="s">
+      <c r="R347">
+        <v>2023</v>
+      </c>
+      <c r="S347" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="348" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A348" s="8" t="s">
         <v>168</v>
       </c>
@@ -13081,14 +13087,14 @@
       <c r="N348" s="8">
         <v>-1.7414217991569501</v>
       </c>
-      <c r="Q348">
-        <v>2023</v>
-      </c>
-      <c r="R348" s="9" t="s">
+      <c r="R348">
+        <v>2023</v>
+      </c>
+      <c r="S348" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A349" s="8" t="s">
         <v>169</v>
       </c>
@@ -13113,14 +13119,14 @@
       <c r="N349" s="8">
         <v>-17.309145317458199</v>
       </c>
-      <c r="Q349">
-        <v>2023</v>
-      </c>
-      <c r="R349" s="9" t="s">
+      <c r="R349">
+        <v>2023</v>
+      </c>
+      <c r="S349" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="350" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A350" s="8" t="s">
         <v>170</v>
       </c>
@@ -13145,14 +13151,14 @@
       <c r="N350" s="8">
         <v>-5.5549228126056196</v>
       </c>
-      <c r="Q350">
-        <v>2023</v>
-      </c>
-      <c r="R350" s="9" t="s">
+      <c r="R350">
+        <v>2023</v>
+      </c>
+      <c r="S350" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="351" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A351" s="8" t="s">
         <v>171</v>
       </c>
@@ -13177,10 +13183,10 @@
       <c r="N351" s="8">
         <v>4.5399898876012799</v>
       </c>
-      <c r="Q351">
-        <v>2023</v>
-      </c>
-      <c r="R351" s="9" t="s">
+      <c r="R351">
+        <v>2023</v>
+      </c>
+      <c r="S351" s="9" t="s">
         <v>328</v>
       </c>
     </row>
@@ -13190,6 +13196,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -13418,7 +13433,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
@@ -13429,16 +13444,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69A04C8A-82DB-49AC-ABA9-9A9E1D23595C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470A1618-E412-402D-A0A2-B99BF6A48721}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13457,7 +13471,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37D46577-38CE-4231-97C2-B04068C673BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13466,12 +13480,4 @@
     <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69A04C8A-82DB-49AC-ABA9-9A9E1D23595C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>